--- a/ref/ingestion/calibrated/jamaica/model_input_variables_jamaica_ip_calibrated.xlsx
+++ b/ref/ingestion/calibrated/jamaica/model_input_variables_jamaica_ip_calibrated.xlsx
@@ -15283,112 +15283,112 @@
         <v>0.8</v>
       </c>
       <c r="J114" t="n">
-        <v>1046162.232</v>
+        <v>27.6712064</v>
       </c>
       <c r="K114" t="n">
-        <v>1046162.232</v>
+        <v>27.6712064</v>
       </c>
       <c r="L114" t="n">
-        <v>1046162.232</v>
+        <v>27.6712064</v>
       </c>
       <c r="M114" t="n">
-        <v>1046162.232</v>
+        <v>27.6712064</v>
       </c>
       <c r="N114" t="n">
-        <v>1046162.232</v>
+        <v>27.6712064</v>
       </c>
       <c r="O114" t="n">
-        <v>1046162.232</v>
+        <v>27.6712064</v>
       </c>
       <c r="P114" t="n">
-        <v>1046162.232</v>
+        <v>27.6712064</v>
       </c>
       <c r="Q114" t="n">
-        <v>1046162.232</v>
+        <v>27.6712064</v>
       </c>
       <c r="R114" t="n">
-        <v>1046162.232</v>
+        <v>27.6712064</v>
       </c>
       <c r="S114" t="n">
-        <v>1046162.232</v>
+        <v>27.6712064</v>
       </c>
       <c r="T114" t="n">
-        <v>1046162.232</v>
+        <v>27.6712064</v>
       </c>
       <c r="U114" t="n">
-        <v>1046162.232</v>
+        <v>27.6712064</v>
       </c>
       <c r="V114" t="n">
-        <v>1046162.232</v>
+        <v>27.6712064</v>
       </c>
       <c r="W114" t="n">
-        <v>1046162.232</v>
+        <v>27.6712064</v>
       </c>
       <c r="X114" t="n">
-        <v>1046162.232</v>
+        <v>27.6712064</v>
       </c>
       <c r="Y114" t="n">
-        <v>1046162.232</v>
+        <v>27.6712064</v>
       </c>
       <c r="Z114" t="n">
-        <v>1046162.232</v>
+        <v>27.6712064</v>
       </c>
       <c r="AA114" t="n">
-        <v>1046162.232</v>
+        <v>27.6712064</v>
       </c>
       <c r="AB114" t="n">
-        <v>1046162.232</v>
+        <v>27.6712064</v>
       </c>
       <c r="AC114" t="n">
-        <v>1046162.232</v>
+        <v>27.6712064</v>
       </c>
       <c r="AD114" t="n">
-        <v>1046162.232</v>
+        <v>27.6712064</v>
       </c>
       <c r="AE114" t="n">
-        <v>1046162.232</v>
+        <v>27.6712064</v>
       </c>
       <c r="AF114" t="n">
-        <v>1046162.232</v>
+        <v>27.6712064</v>
       </c>
       <c r="AG114" t="n">
-        <v>1046162.232</v>
+        <v>27.6712064</v>
       </c>
       <c r="AH114" t="n">
-        <v>1046162.232</v>
+        <v>27.6712064</v>
       </c>
       <c r="AI114" t="n">
-        <v>1046162.232</v>
+        <v>27.6712064</v>
       </c>
       <c r="AJ114" t="n">
-        <v>1046162.232</v>
+        <v>27.6712064</v>
       </c>
       <c r="AK114" t="n">
-        <v>1046162.232</v>
+        <v>27.6712064</v>
       </c>
       <c r="AL114" t="n">
-        <v>1046162.232</v>
+        <v>27.6712064</v>
       </c>
       <c r="AM114" t="n">
-        <v>1046162.232</v>
+        <v>27.6712064</v>
       </c>
       <c r="AN114" t="n">
-        <v>1046162.232</v>
+        <v>27.6712064</v>
       </c>
       <c r="AO114" t="n">
-        <v>1046162.232</v>
+        <v>27.6712064</v>
       </c>
       <c r="AP114" t="n">
-        <v>1046162.232</v>
+        <v>27.6712064</v>
       </c>
       <c r="AQ114" t="n">
-        <v>1046162.232</v>
+        <v>27.6712064</v>
       </c>
       <c r="AR114" t="n">
-        <v>1046162.232</v>
+        <v>27.6712064</v>
       </c>
       <c r="AS114" t="n">
-        <v>1046162.232</v>
+        <v>27.6712064</v>
       </c>
     </row>
     <row r="115">

--- a/ref/ingestion/calibrated/jamaica/model_input_variables_jamaica_ip_calibrated.xlsx
+++ b/ref/ingestion/calibrated/jamaica/model_input_variables_jamaica_ip_calibrated.xlsx
@@ -13449,112 +13449,112 @@
         <v>0.8</v>
       </c>
       <c r="J100" t="n">
-        <v>285987.0327</v>
+        <v>37774.29676</v>
       </c>
       <c r="K100" t="n">
-        <v>285987.0327</v>
+        <v>37774.29676</v>
       </c>
       <c r="L100" t="n">
-        <v>285987.0327</v>
+        <v>37774.29676</v>
       </c>
       <c r="M100" t="n">
-        <v>285987.0327</v>
+        <v>37774.29676</v>
       </c>
       <c r="N100" t="n">
-        <v>285987.0327</v>
+        <v>37774.29676</v>
       </c>
       <c r="O100" t="n">
-        <v>285987.0327</v>
+        <v>37774.29676</v>
       </c>
       <c r="P100" t="n">
-        <v>285987.0327</v>
+        <v>37774.29676</v>
       </c>
       <c r="Q100" t="n">
-        <v>285987.0327</v>
+        <v>37774.29676</v>
       </c>
       <c r="R100" t="n">
-        <v>285987.0327</v>
+        <v>37774.29676</v>
       </c>
       <c r="S100" t="n">
-        <v>285987.0327</v>
+        <v>37774.29676</v>
       </c>
       <c r="T100" t="n">
-        <v>285987.0327</v>
+        <v>37774.29676</v>
       </c>
       <c r="U100" t="n">
-        <v>285987.0327</v>
+        <v>37774.29676</v>
       </c>
       <c r="V100" t="n">
-        <v>285987.0327</v>
+        <v>37774.29676</v>
       </c>
       <c r="W100" t="n">
-        <v>285987.0327</v>
+        <v>37774.29676</v>
       </c>
       <c r="X100" t="n">
-        <v>285987.0327</v>
+        <v>37774.29676</v>
       </c>
       <c r="Y100" t="n">
-        <v>285987.0327</v>
+        <v>37774.29676</v>
       </c>
       <c r="Z100" t="n">
-        <v>285987.0327</v>
+        <v>37774.29676</v>
       </c>
       <c r="AA100" t="n">
-        <v>285987.0327</v>
+        <v>37774.29676</v>
       </c>
       <c r="AB100" t="n">
-        <v>285987.0327</v>
+        <v>37774.29676</v>
       </c>
       <c r="AC100" t="n">
-        <v>285987.0327</v>
+        <v>37774.29676</v>
       </c>
       <c r="AD100" t="n">
-        <v>285987.0327</v>
+        <v>37774.29676</v>
       </c>
       <c r="AE100" t="n">
-        <v>285987.0327</v>
+        <v>37774.29676</v>
       </c>
       <c r="AF100" t="n">
-        <v>285987.0327</v>
+        <v>37774.29676</v>
       </c>
       <c r="AG100" t="n">
-        <v>285987.0327</v>
+        <v>37774.29676</v>
       </c>
       <c r="AH100" t="n">
-        <v>285987.0327</v>
+        <v>37774.29676</v>
       </c>
       <c r="AI100" t="n">
-        <v>285987.0327</v>
+        <v>37774.29676</v>
       </c>
       <c r="AJ100" t="n">
-        <v>285987.0327</v>
+        <v>37774.29676</v>
       </c>
       <c r="AK100" t="n">
-        <v>285987.0327</v>
+        <v>37774.29676</v>
       </c>
       <c r="AL100" t="n">
-        <v>285987.0327</v>
+        <v>37774.29676</v>
       </c>
       <c r="AM100" t="n">
-        <v>285987.0327</v>
+        <v>37774.29676</v>
       </c>
       <c r="AN100" t="n">
-        <v>285987.0327</v>
+        <v>37774.29676</v>
       </c>
       <c r="AO100" t="n">
-        <v>285987.0327</v>
+        <v>37774.29676</v>
       </c>
       <c r="AP100" t="n">
-        <v>285987.0327</v>
+        <v>37774.29676</v>
       </c>
       <c r="AQ100" t="n">
-        <v>285987.0327</v>
+        <v>37774.29676</v>
       </c>
       <c r="AR100" t="n">
-        <v>285987.0327</v>
+        <v>37774.29676</v>
       </c>
       <c r="AS100" t="n">
-        <v>285987.0327</v>
+        <v>37774.29676</v>
       </c>
     </row>
     <row r="101">
@@ -13580,112 +13580,112 @@
         <v>0.8</v>
       </c>
       <c r="J101" t="n">
-        <v>2835286.032</v>
+        <v>283528.6032</v>
       </c>
       <c r="K101" t="n">
-        <v>2835286.032</v>
+        <v>283528.6032</v>
       </c>
       <c r="L101" t="n">
-        <v>2835286.032</v>
+        <v>283528.6032</v>
       </c>
       <c r="M101" t="n">
-        <v>2835286.032</v>
+        <v>283528.6032</v>
       </c>
       <c r="N101" t="n">
-        <v>2835286.032</v>
+        <v>283528.6032</v>
       </c>
       <c r="O101" t="n">
-        <v>2835286.032</v>
+        <v>283528.6032</v>
       </c>
       <c r="P101" t="n">
-        <v>2835286.032</v>
+        <v>283528.6032</v>
       </c>
       <c r="Q101" t="n">
-        <v>2835286.032</v>
+        <v>283528.6032</v>
       </c>
       <c r="R101" t="n">
-        <v>2835286.032</v>
+        <v>283528.6032</v>
       </c>
       <c r="S101" t="n">
-        <v>2835286.032</v>
+        <v>283528.6032</v>
       </c>
       <c r="T101" t="n">
-        <v>2835286.032</v>
+        <v>283528.6032</v>
       </c>
       <c r="U101" t="n">
-        <v>2835286.032</v>
+        <v>283528.6032</v>
       </c>
       <c r="V101" t="n">
-        <v>2835286.032</v>
+        <v>283528.6032</v>
       </c>
       <c r="W101" t="n">
-        <v>2835286.032</v>
+        <v>283528.6032</v>
       </c>
       <c r="X101" t="n">
-        <v>2835286.032</v>
+        <v>283528.6032</v>
       </c>
       <c r="Y101" t="n">
-        <v>2835286.032</v>
+        <v>283528.6032</v>
       </c>
       <c r="Z101" t="n">
-        <v>2835286.032</v>
+        <v>283528.6032</v>
       </c>
       <c r="AA101" t="n">
-        <v>2835286.032</v>
+        <v>283528.6032</v>
       </c>
       <c r="AB101" t="n">
-        <v>2835286.032</v>
+        <v>283528.6032</v>
       </c>
       <c r="AC101" t="n">
-        <v>2835286.032</v>
+        <v>283528.6032</v>
       </c>
       <c r="AD101" t="n">
-        <v>2835286.032</v>
+        <v>283528.6032</v>
       </c>
       <c r="AE101" t="n">
-        <v>2835286.032</v>
+        <v>283528.6032</v>
       </c>
       <c r="AF101" t="n">
-        <v>2835286.032</v>
+        <v>283528.6032</v>
       </c>
       <c r="AG101" t="n">
-        <v>2835286.032</v>
+        <v>283528.6032</v>
       </c>
       <c r="AH101" t="n">
-        <v>2835286.032</v>
+        <v>283528.6032</v>
       </c>
       <c r="AI101" t="n">
-        <v>2835286.032</v>
+        <v>283528.6032</v>
       </c>
       <c r="AJ101" t="n">
-        <v>2835286.032</v>
+        <v>283528.6032</v>
       </c>
       <c r="AK101" t="n">
-        <v>2835286.032</v>
+        <v>283528.6032</v>
       </c>
       <c r="AL101" t="n">
-        <v>2835286.032</v>
+        <v>283528.6032</v>
       </c>
       <c r="AM101" t="n">
-        <v>2835286.032</v>
+        <v>283528.6032</v>
       </c>
       <c r="AN101" t="n">
-        <v>2835286.032</v>
+        <v>283528.6032</v>
       </c>
       <c r="AO101" t="n">
-        <v>2835286.032</v>
+        <v>283528.6032</v>
       </c>
       <c r="AP101" t="n">
-        <v>2835286.032</v>
+        <v>283528.6032</v>
       </c>
       <c r="AQ101" t="n">
-        <v>2835286.032</v>
+        <v>283528.6032</v>
       </c>
       <c r="AR101" t="n">
-        <v>2835286.032</v>
+        <v>283528.6032</v>
       </c>
       <c r="AS101" t="n">
-        <v>2835286.032</v>
+        <v>283528.6032</v>
       </c>
     </row>
     <row r="102">
@@ -13842,112 +13842,112 @@
         <v>0.8</v>
       </c>
       <c r="J103" t="n">
-        <v>11687.64651</v>
+        <v>11633.79687</v>
       </c>
       <c r="K103" t="n">
-        <v>11687.64651</v>
+        <v>11633.79687</v>
       </c>
       <c r="L103" t="n">
-        <v>11687.64651</v>
+        <v>11633.79687</v>
       </c>
       <c r="M103" t="n">
-        <v>11687.64651</v>
+        <v>11633.79687</v>
       </c>
       <c r="N103" t="n">
-        <v>11687.64651</v>
+        <v>11633.79687</v>
       </c>
       <c r="O103" t="n">
-        <v>11687.64651</v>
+        <v>11633.79687</v>
       </c>
       <c r="P103" t="n">
-        <v>11687.64651</v>
+        <v>11633.79687</v>
       </c>
       <c r="Q103" t="n">
-        <v>11687.64651</v>
+        <v>11633.79687</v>
       </c>
       <c r="R103" t="n">
-        <v>11687.64651</v>
+        <v>11633.79687</v>
       </c>
       <c r="S103" t="n">
-        <v>11687.64651</v>
+        <v>11633.79687</v>
       </c>
       <c r="T103" t="n">
-        <v>11687.64651</v>
+        <v>11633.79687</v>
       </c>
       <c r="U103" t="n">
-        <v>11687.64651</v>
+        <v>11633.79687</v>
       </c>
       <c r="V103" t="n">
-        <v>11687.64651</v>
+        <v>11633.79687</v>
       </c>
       <c r="W103" t="n">
-        <v>11687.64651</v>
+        <v>11633.79687</v>
       </c>
       <c r="X103" t="n">
-        <v>11687.64651</v>
+        <v>11633.79687</v>
       </c>
       <c r="Y103" t="n">
-        <v>11687.64651</v>
+        <v>11633.79687</v>
       </c>
       <c r="Z103" t="n">
-        <v>11687.64651</v>
+        <v>11633.79687</v>
       </c>
       <c r="AA103" t="n">
-        <v>11687.64651</v>
+        <v>11633.79687</v>
       </c>
       <c r="AB103" t="n">
-        <v>11687.64651</v>
+        <v>11633.79687</v>
       </c>
       <c r="AC103" t="n">
-        <v>11687.64651</v>
+        <v>11633.79687</v>
       </c>
       <c r="AD103" t="n">
-        <v>11687.64651</v>
+        <v>11633.79687</v>
       </c>
       <c r="AE103" t="n">
-        <v>11687.64651</v>
+        <v>11633.79687</v>
       </c>
       <c r="AF103" t="n">
-        <v>11687.64651</v>
+        <v>11633.79687</v>
       </c>
       <c r="AG103" t="n">
-        <v>11687.64651</v>
+        <v>11633.79687</v>
       </c>
       <c r="AH103" t="n">
-        <v>11687.64651</v>
+        <v>11633.79687</v>
       </c>
       <c r="AI103" t="n">
-        <v>11687.64651</v>
+        <v>11633.79687</v>
       </c>
       <c r="AJ103" t="n">
-        <v>11687.64651</v>
+        <v>11633.79687</v>
       </c>
       <c r="AK103" t="n">
-        <v>11687.64651</v>
+        <v>11633.79687</v>
       </c>
       <c r="AL103" t="n">
-        <v>11687.64651</v>
+        <v>11633.79687</v>
       </c>
       <c r="AM103" t="n">
-        <v>11687.64651</v>
+        <v>11633.79687</v>
       </c>
       <c r="AN103" t="n">
-        <v>11687.64651</v>
+        <v>11633.79687</v>
       </c>
       <c r="AO103" t="n">
-        <v>11687.64651</v>
+        <v>11633.79687</v>
       </c>
       <c r="AP103" t="n">
-        <v>11687.64651</v>
+        <v>11633.79687</v>
       </c>
       <c r="AQ103" t="n">
-        <v>11687.64651</v>
+        <v>11633.79687</v>
       </c>
       <c r="AR103" t="n">
-        <v>11687.64651</v>
+        <v>11633.79687</v>
       </c>
       <c r="AS103" t="n">
-        <v>11687.64651</v>
+        <v>11633.79687</v>
       </c>
     </row>
     <row r="104">
@@ -14104,112 +14104,112 @@
         <v>0.8</v>
       </c>
       <c r="J105" t="n">
-        <v>4054.644878</v>
+        <v>1054.207668</v>
       </c>
       <c r="K105" t="n">
-        <v>4054.644878</v>
+        <v>1054.207668</v>
       </c>
       <c r="L105" t="n">
-        <v>4054.644878</v>
+        <v>1054.207668</v>
       </c>
       <c r="M105" t="n">
-        <v>4054.644878</v>
+        <v>1054.207668</v>
       </c>
       <c r="N105" t="n">
-        <v>4054.644878</v>
+        <v>1054.207668</v>
       </c>
       <c r="O105" t="n">
-        <v>4054.644878</v>
+        <v>1054.207668</v>
       </c>
       <c r="P105" t="n">
-        <v>4054.644878</v>
+        <v>1054.207668</v>
       </c>
       <c r="Q105" t="n">
-        <v>4054.644878</v>
+        <v>1054.207668</v>
       </c>
       <c r="R105" t="n">
-        <v>4054.644878</v>
+        <v>1054.207668</v>
       </c>
       <c r="S105" t="n">
-        <v>4054.644878</v>
+        <v>1054.207668</v>
       </c>
       <c r="T105" t="n">
-        <v>4054.644878</v>
+        <v>1054.207668</v>
       </c>
       <c r="U105" t="n">
-        <v>4054.644878</v>
+        <v>1054.207668</v>
       </c>
       <c r="V105" t="n">
-        <v>4054.644878</v>
+        <v>1054.207668</v>
       </c>
       <c r="W105" t="n">
-        <v>4054.644878</v>
+        <v>1054.207668</v>
       </c>
       <c r="X105" t="n">
-        <v>4054.644878</v>
+        <v>1054.207668</v>
       </c>
       <c r="Y105" t="n">
-        <v>4054.644878</v>
+        <v>1054.207668</v>
       </c>
       <c r="Z105" t="n">
-        <v>4054.644878</v>
+        <v>1054.207668</v>
       </c>
       <c r="AA105" t="n">
-        <v>4054.644878</v>
+        <v>1054.207668</v>
       </c>
       <c r="AB105" t="n">
-        <v>4054.644878</v>
+        <v>1054.207668</v>
       </c>
       <c r="AC105" t="n">
-        <v>4054.644878</v>
+        <v>1054.207668</v>
       </c>
       <c r="AD105" t="n">
-        <v>4054.644878</v>
+        <v>1054.207668</v>
       </c>
       <c r="AE105" t="n">
-        <v>4054.644878</v>
+        <v>1054.207668</v>
       </c>
       <c r="AF105" t="n">
-        <v>4054.644878</v>
+        <v>1054.207668</v>
       </c>
       <c r="AG105" t="n">
-        <v>4054.644878</v>
+        <v>1054.207668</v>
       </c>
       <c r="AH105" t="n">
-        <v>4054.644878</v>
+        <v>1054.207668</v>
       </c>
       <c r="AI105" t="n">
-        <v>4054.644878</v>
+        <v>1054.207668</v>
       </c>
       <c r="AJ105" t="n">
-        <v>4054.644878</v>
+        <v>1054.207668</v>
       </c>
       <c r="AK105" t="n">
-        <v>4054.644878</v>
+        <v>1054.207668</v>
       </c>
       <c r="AL105" t="n">
-        <v>4054.644878</v>
+        <v>1054.207668</v>
       </c>
       <c r="AM105" t="n">
-        <v>4054.644878</v>
+        <v>1054.207668</v>
       </c>
       <c r="AN105" t="n">
-        <v>4054.644878</v>
+        <v>1054.207668</v>
       </c>
       <c r="AO105" t="n">
-        <v>4054.644878</v>
+        <v>1054.207668</v>
       </c>
       <c r="AP105" t="n">
-        <v>4054.644878</v>
+        <v>1054.207668</v>
       </c>
       <c r="AQ105" t="n">
-        <v>4054.644878</v>
+        <v>1054.207668</v>
       </c>
       <c r="AR105" t="n">
-        <v>4054.644878</v>
+        <v>1054.207668</v>
       </c>
       <c r="AS105" t="n">
-        <v>4054.644878</v>
+        <v>1054.207668</v>
       </c>
     </row>
     <row r="106">
@@ -14235,112 +14235,112 @@
         <v>0.8</v>
       </c>
       <c r="J106" t="n">
-        <v>13365.59893</v>
+        <v>1707.744735</v>
       </c>
       <c r="K106" t="n">
-        <v>13365.59893</v>
+        <v>1707.744735</v>
       </c>
       <c r="L106" t="n">
-        <v>13365.59893</v>
+        <v>1707.744735</v>
       </c>
       <c r="M106" t="n">
-        <v>13365.59893</v>
+        <v>1707.744735</v>
       </c>
       <c r="N106" t="n">
-        <v>13365.59893</v>
+        <v>1707.744735</v>
       </c>
       <c r="O106" t="n">
-        <v>13365.59893</v>
+        <v>1707.744735</v>
       </c>
       <c r="P106" t="n">
-        <v>13365.59893</v>
+        <v>1707.744735</v>
       </c>
       <c r="Q106" t="n">
-        <v>13365.59893</v>
+        <v>1707.744735</v>
       </c>
       <c r="R106" t="n">
-        <v>13365.59893</v>
+        <v>1707.744735</v>
       </c>
       <c r="S106" t="n">
-        <v>13365.59893</v>
+        <v>1707.744735</v>
       </c>
       <c r="T106" t="n">
-        <v>13365.59893</v>
+        <v>1707.744735</v>
       </c>
       <c r="U106" t="n">
-        <v>13365.59893</v>
+        <v>1707.744735</v>
       </c>
       <c r="V106" t="n">
-        <v>13365.59893</v>
+        <v>1707.744735</v>
       </c>
       <c r="W106" t="n">
-        <v>13365.59893</v>
+        <v>1707.744735</v>
       </c>
       <c r="X106" t="n">
-        <v>13365.59893</v>
+        <v>1707.744735</v>
       </c>
       <c r="Y106" t="n">
-        <v>13365.59893</v>
+        <v>1707.744735</v>
       </c>
       <c r="Z106" t="n">
-        <v>13365.59893</v>
+        <v>1707.744735</v>
       </c>
       <c r="AA106" t="n">
-        <v>13365.59893</v>
+        <v>1707.744735</v>
       </c>
       <c r="AB106" t="n">
-        <v>13365.59893</v>
+        <v>1707.744735</v>
       </c>
       <c r="AC106" t="n">
-        <v>13365.59893</v>
+        <v>1707.744735</v>
       </c>
       <c r="AD106" t="n">
-        <v>13365.59893</v>
+        <v>1707.744735</v>
       </c>
       <c r="AE106" t="n">
-        <v>13365.59893</v>
+        <v>1707.744735</v>
       </c>
       <c r="AF106" t="n">
-        <v>13365.59893</v>
+        <v>1707.744735</v>
       </c>
       <c r="AG106" t="n">
-        <v>13365.59893</v>
+        <v>1707.744735</v>
       </c>
       <c r="AH106" t="n">
-        <v>13365.59893</v>
+        <v>1707.744735</v>
       </c>
       <c r="AI106" t="n">
-        <v>13365.59893</v>
+        <v>1707.744735</v>
       </c>
       <c r="AJ106" t="n">
-        <v>13365.59893</v>
+        <v>1707.744735</v>
       </c>
       <c r="AK106" t="n">
-        <v>13365.59893</v>
+        <v>1707.744735</v>
       </c>
       <c r="AL106" t="n">
-        <v>13365.59893</v>
+        <v>1707.744735</v>
       </c>
       <c r="AM106" t="n">
-        <v>13365.59893</v>
+        <v>1707.744735</v>
       </c>
       <c r="AN106" t="n">
-        <v>13365.59893</v>
+        <v>1707.744735</v>
       </c>
       <c r="AO106" t="n">
-        <v>13365.59893</v>
+        <v>1707.744735</v>
       </c>
       <c r="AP106" t="n">
-        <v>13365.59893</v>
+        <v>1707.744735</v>
       </c>
       <c r="AQ106" t="n">
-        <v>13365.59893</v>
+        <v>1707.744735</v>
       </c>
       <c r="AR106" t="n">
-        <v>13365.59893</v>
+        <v>1707.744735</v>
       </c>
       <c r="AS106" t="n">
-        <v>13365.59893</v>
+        <v>1707.744735</v>
       </c>
     </row>
     <row r="107">
@@ -14366,112 +14366,112 @@
         <v>0.8</v>
       </c>
       <c r="J107" t="n">
-        <v>10893.11086</v>
+        <v>21786.22172</v>
       </c>
       <c r="K107" t="n">
-        <v>10893.11086</v>
+        <v>21786.22172</v>
       </c>
       <c r="L107" t="n">
-        <v>10893.11086</v>
+        <v>21786.22172</v>
       </c>
       <c r="M107" t="n">
-        <v>10893.11086</v>
+        <v>21786.22172</v>
       </c>
       <c r="N107" t="n">
-        <v>10893.11086</v>
+        <v>21786.22172</v>
       </c>
       <c r="O107" t="n">
-        <v>10893.11086</v>
+        <v>21786.22172</v>
       </c>
       <c r="P107" t="n">
-        <v>10893.11086</v>
+        <v>21786.22172</v>
       </c>
       <c r="Q107" t="n">
-        <v>10893.11086</v>
+        <v>21786.22172</v>
       </c>
       <c r="R107" t="n">
-        <v>10893.11086</v>
+        <v>21786.22172</v>
       </c>
       <c r="S107" t="n">
-        <v>10893.11086</v>
+        <v>21786.22172</v>
       </c>
       <c r="T107" t="n">
-        <v>10893.11086</v>
+        <v>21786.22172</v>
       </c>
       <c r="U107" t="n">
-        <v>10893.11086</v>
+        <v>21786.22172</v>
       </c>
       <c r="V107" t="n">
-        <v>10893.11086</v>
+        <v>21786.22172</v>
       </c>
       <c r="W107" t="n">
-        <v>10893.11086</v>
+        <v>21786.22172</v>
       </c>
       <c r="X107" t="n">
-        <v>10893.11086</v>
+        <v>21786.22172</v>
       </c>
       <c r="Y107" t="n">
-        <v>10893.11086</v>
+        <v>21786.22172</v>
       </c>
       <c r="Z107" t="n">
-        <v>10893.11086</v>
+        <v>21786.22172</v>
       </c>
       <c r="AA107" t="n">
-        <v>10893.11086</v>
+        <v>21786.22172</v>
       </c>
       <c r="AB107" t="n">
-        <v>10893.11086</v>
+        <v>21786.22172</v>
       </c>
       <c r="AC107" t="n">
-        <v>10893.11086</v>
+        <v>21786.22172</v>
       </c>
       <c r="AD107" t="n">
-        <v>10893.11086</v>
+        <v>21786.22172</v>
       </c>
       <c r="AE107" t="n">
-        <v>10893.11086</v>
+        <v>21786.22172</v>
       </c>
       <c r="AF107" t="n">
-        <v>10893.11086</v>
+        <v>21786.22172</v>
       </c>
       <c r="AG107" t="n">
-        <v>10893.11086</v>
+        <v>21786.22172</v>
       </c>
       <c r="AH107" t="n">
-        <v>10893.11086</v>
+        <v>21786.22172</v>
       </c>
       <c r="AI107" t="n">
-        <v>10893.11086</v>
+        <v>21786.22172</v>
       </c>
       <c r="AJ107" t="n">
-        <v>10893.11086</v>
+        <v>21786.22172</v>
       </c>
       <c r="AK107" t="n">
-        <v>10893.11086</v>
+        <v>21786.22172</v>
       </c>
       <c r="AL107" t="n">
-        <v>10893.11086</v>
+        <v>21786.22172</v>
       </c>
       <c r="AM107" t="n">
-        <v>10893.11086</v>
+        <v>21786.22172</v>
       </c>
       <c r="AN107" t="n">
-        <v>10893.11086</v>
+        <v>21786.22172</v>
       </c>
       <c r="AO107" t="n">
-        <v>10893.11086</v>
+        <v>21786.22172</v>
       </c>
       <c r="AP107" t="n">
-        <v>10893.11086</v>
+        <v>21786.22172</v>
       </c>
       <c r="AQ107" t="n">
-        <v>10893.11086</v>
+        <v>21786.22172</v>
       </c>
       <c r="AR107" t="n">
-        <v>10893.11086</v>
+        <v>21786.22172</v>
       </c>
       <c r="AS107" t="n">
-        <v>10893.11086</v>
+        <v>21786.22172</v>
       </c>
     </row>
     <row r="108">
@@ -15414,112 +15414,112 @@
         <v>0.8</v>
       </c>
       <c r="J115" t="n">
-        <v>1312.317814</v>
+        <v>13123.17814</v>
       </c>
       <c r="K115" t="n">
-        <v>1312.317814</v>
+        <v>13123.17814</v>
       </c>
       <c r="L115" t="n">
-        <v>1312.317814</v>
+        <v>13123.17814</v>
       </c>
       <c r="M115" t="n">
-        <v>1312.317814</v>
+        <v>13123.17814</v>
       </c>
       <c r="N115" t="n">
-        <v>1312.317814</v>
+        <v>13123.17814</v>
       </c>
       <c r="O115" t="n">
-        <v>1312.317814</v>
+        <v>13123.17814</v>
       </c>
       <c r="P115" t="n">
-        <v>1312.317814</v>
+        <v>13123.17814</v>
       </c>
       <c r="Q115" t="n">
-        <v>1312.317814</v>
+        <v>13123.17814</v>
       </c>
       <c r="R115" t="n">
-        <v>1312.317814</v>
+        <v>13123.17814</v>
       </c>
       <c r="S115" t="n">
-        <v>1312.317814</v>
+        <v>13123.17814</v>
       </c>
       <c r="T115" t="n">
-        <v>1312.317814</v>
+        <v>13123.17814</v>
       </c>
       <c r="U115" t="n">
-        <v>1312.317814</v>
+        <v>13123.17814</v>
       </c>
       <c r="V115" t="n">
-        <v>1312.317814</v>
+        <v>13123.17814</v>
       </c>
       <c r="W115" t="n">
-        <v>1312.317814</v>
+        <v>13123.17814</v>
       </c>
       <c r="X115" t="n">
-        <v>1312.317814</v>
+        <v>13123.17814</v>
       </c>
       <c r="Y115" t="n">
-        <v>1312.317814</v>
+        <v>13123.17814</v>
       </c>
       <c r="Z115" t="n">
-        <v>1312.317814</v>
+        <v>13123.17814</v>
       </c>
       <c r="AA115" t="n">
-        <v>1312.317814</v>
+        <v>13123.17814</v>
       </c>
       <c r="AB115" t="n">
-        <v>1312.317814</v>
+        <v>13123.17814</v>
       </c>
       <c r="AC115" t="n">
-        <v>1312.317814</v>
+        <v>13123.17814</v>
       </c>
       <c r="AD115" t="n">
-        <v>1312.317814</v>
+        <v>13123.17814</v>
       </c>
       <c r="AE115" t="n">
-        <v>1312.317814</v>
+        <v>13123.17814</v>
       </c>
       <c r="AF115" t="n">
-        <v>1312.317814</v>
+        <v>13123.17814</v>
       </c>
       <c r="AG115" t="n">
-        <v>1312.317814</v>
+        <v>13123.17814</v>
       </c>
       <c r="AH115" t="n">
-        <v>1312.317814</v>
+        <v>13123.17814</v>
       </c>
       <c r="AI115" t="n">
-        <v>1312.317814</v>
+        <v>13123.17814</v>
       </c>
       <c r="AJ115" t="n">
-        <v>1312.317814</v>
+        <v>13123.17814</v>
       </c>
       <c r="AK115" t="n">
-        <v>1312.317814</v>
+        <v>13123.17814</v>
       </c>
       <c r="AL115" t="n">
-        <v>1312.317814</v>
+        <v>13123.17814</v>
       </c>
       <c r="AM115" t="n">
-        <v>1312.317814</v>
+        <v>13123.17814</v>
       </c>
       <c r="AN115" t="n">
-        <v>1312.317814</v>
+        <v>13123.17814</v>
       </c>
       <c r="AO115" t="n">
-        <v>1312.317814</v>
+        <v>13123.17814</v>
       </c>
       <c r="AP115" t="n">
-        <v>1312.317814</v>
+        <v>13123.17814</v>
       </c>
       <c r="AQ115" t="n">
-        <v>1312.317814</v>
+        <v>13123.17814</v>
       </c>
       <c r="AR115" t="n">
-        <v>1312.317814</v>
+        <v>13123.17814</v>
       </c>
       <c r="AS115" t="n">
-        <v>1312.317814</v>
+        <v>13123.17814</v>
       </c>
     </row>
     <row r="116">

--- a/ref/ingestion/calibrated/jamaica/model_input_variables_jamaica_ip_calibrated.xlsx
+++ b/ref/ingestion/calibrated/jamaica/model_input_variables_jamaica_ip_calibrated.xlsx
@@ -12973,112 +12973,112 @@
         <v>0.8</v>
       </c>
       <c r="J100">
-        <v>840378.7647000001</v>
+        <v>37774.29676</v>
       </c>
       <c r="K100">
-        <v>840378.7647000001</v>
+        <v>37774.29676</v>
       </c>
       <c r="L100">
-        <v>840378.7647000001</v>
+        <v>37774.29676</v>
       </c>
       <c r="M100">
-        <v>840378.7647000001</v>
+        <v>37774.29676</v>
       </c>
       <c r="N100">
-        <v>840378.7647000001</v>
+        <v>37774.29676</v>
       </c>
       <c r="O100">
-        <v>840378.7647000001</v>
+        <v>37774.29676</v>
       </c>
       <c r="P100">
-        <v>840378.7647000001</v>
+        <v>37774.29676</v>
       </c>
       <c r="Q100">
-        <v>840378.7647000001</v>
+        <v>37774.29676</v>
       </c>
       <c r="R100">
-        <v>840378.7647000001</v>
+        <v>37774.29676</v>
       </c>
       <c r="S100">
-        <v>840378.7647000001</v>
+        <v>37774.29676</v>
       </c>
       <c r="T100">
-        <v>840378.7647000001</v>
+        <v>37774.29676</v>
       </c>
       <c r="U100">
-        <v>840378.7647000001</v>
+        <v>37774.29676</v>
       </c>
       <c r="V100">
-        <v>840378.7647000001</v>
+        <v>37774.29676</v>
       </c>
       <c r="W100">
-        <v>840378.7647000001</v>
+        <v>37774.29676</v>
       </c>
       <c r="X100">
-        <v>840378.7647000001</v>
+        <v>37774.29676</v>
       </c>
       <c r="Y100">
-        <v>840378.7647000001</v>
+        <v>37774.29676</v>
       </c>
       <c r="Z100">
-        <v>840378.7647000001</v>
+        <v>37774.29676</v>
       </c>
       <c r="AA100">
-        <v>840378.7647000001</v>
+        <v>37774.29676</v>
       </c>
       <c r="AB100">
-        <v>840378.7647000001</v>
+        <v>37774.29676</v>
       </c>
       <c r="AC100">
-        <v>840378.7647000001</v>
+        <v>37774.29676</v>
       </c>
       <c r="AD100">
-        <v>840378.7647000001</v>
+        <v>37774.29676</v>
       </c>
       <c r="AE100">
-        <v>840378.7647000001</v>
+        <v>37774.29676</v>
       </c>
       <c r="AF100">
-        <v>840378.7647000001</v>
+        <v>37774.29676</v>
       </c>
       <c r="AG100">
-        <v>840378.7647000001</v>
+        <v>37774.29676</v>
       </c>
       <c r="AH100">
-        <v>840378.7647000001</v>
+        <v>37774.29676</v>
       </c>
       <c r="AI100">
-        <v>840378.7647000001</v>
+        <v>37774.29676</v>
       </c>
       <c r="AJ100">
-        <v>840378.7647000001</v>
+        <v>37774.29676</v>
       </c>
       <c r="AK100">
-        <v>840378.7647000001</v>
+        <v>37774.29676</v>
       </c>
       <c r="AL100">
-        <v>840378.7647000001</v>
+        <v>37774.29676</v>
       </c>
       <c r="AM100">
-        <v>840378.7647000001</v>
+        <v>37774.29676</v>
       </c>
       <c r="AN100">
-        <v>840378.7647000001</v>
+        <v>37774.29676</v>
       </c>
       <c r="AO100">
-        <v>840378.7647000001</v>
+        <v>37774.29676</v>
       </c>
       <c r="AP100">
-        <v>840378.7647000001</v>
+        <v>37774.29676</v>
       </c>
       <c r="AQ100">
-        <v>840378.7647000001</v>
+        <v>37774.29676</v>
       </c>
       <c r="AR100">
-        <v>840378.7647000001</v>
+        <v>37774.29676</v>
       </c>
       <c r="AS100">
-        <v>840378.7647000001</v>
+        <v>37774.29676</v>
       </c>
     </row>
     <row r="101" spans="1:45">
@@ -13095,112 +13095,112 @@
         <v>0.8</v>
       </c>
       <c r="J101">
-        <v>206840.2975</v>
+        <v>283528.6032</v>
       </c>
       <c r="K101">
-        <v>206840.2975</v>
+        <v>283528.6032</v>
       </c>
       <c r="L101">
-        <v>206840.2975</v>
+        <v>283528.6032</v>
       </c>
       <c r="M101">
-        <v>206840.2975</v>
+        <v>283528.6032</v>
       </c>
       <c r="N101">
-        <v>206840.2975</v>
+        <v>283528.6032</v>
       </c>
       <c r="O101">
-        <v>206840.2975</v>
+        <v>283528.6032</v>
       </c>
       <c r="P101">
-        <v>206840.2975</v>
+        <v>283528.6032</v>
       </c>
       <c r="Q101">
-        <v>206840.2975</v>
+        <v>283528.6032</v>
       </c>
       <c r="R101">
-        <v>206840.2975</v>
+        <v>283528.6032</v>
       </c>
       <c r="S101">
-        <v>206840.2975</v>
+        <v>283528.6032</v>
       </c>
       <c r="T101">
-        <v>206840.2975</v>
+        <v>283528.6032</v>
       </c>
       <c r="U101">
-        <v>206840.2975</v>
+        <v>283528.6032</v>
       </c>
       <c r="V101">
-        <v>206840.2975</v>
+        <v>283528.6032</v>
       </c>
       <c r="W101">
-        <v>206840.2975</v>
+        <v>283528.6032</v>
       </c>
       <c r="X101">
-        <v>206840.2975</v>
+        <v>283528.6032</v>
       </c>
       <c r="Y101">
-        <v>206840.2975</v>
+        <v>283528.6032</v>
       </c>
       <c r="Z101">
-        <v>206840.2975</v>
+        <v>283528.6032</v>
       </c>
       <c r="AA101">
-        <v>206840.2975</v>
+        <v>283528.6032</v>
       </c>
       <c r="AB101">
-        <v>206840.2975</v>
+        <v>283528.6032</v>
       </c>
       <c r="AC101">
-        <v>206840.2975</v>
+        <v>283528.6032</v>
       </c>
       <c r="AD101">
-        <v>206840.2975</v>
+        <v>283528.6032</v>
       </c>
       <c r="AE101">
-        <v>206840.2975</v>
+        <v>283528.6032</v>
       </c>
       <c r="AF101">
-        <v>206840.2975</v>
+        <v>283528.6032</v>
       </c>
       <c r="AG101">
-        <v>206840.2975</v>
+        <v>283528.6032</v>
       </c>
       <c r="AH101">
-        <v>206840.2975</v>
+        <v>283528.6032</v>
       </c>
       <c r="AI101">
-        <v>206840.2975</v>
+        <v>283528.6032</v>
       </c>
       <c r="AJ101">
-        <v>206840.2975</v>
+        <v>283528.6032</v>
       </c>
       <c r="AK101">
-        <v>206840.2975</v>
+        <v>283528.6032</v>
       </c>
       <c r="AL101">
-        <v>206840.2975</v>
+        <v>283528.6032</v>
       </c>
       <c r="AM101">
-        <v>206840.2975</v>
+        <v>283528.6032</v>
       </c>
       <c r="AN101">
-        <v>206840.2975</v>
+        <v>283528.6032</v>
       </c>
       <c r="AO101">
-        <v>206840.2975</v>
+        <v>283528.6032</v>
       </c>
       <c r="AP101">
-        <v>206840.2975</v>
+        <v>283528.6032</v>
       </c>
       <c r="AQ101">
-        <v>206840.2975</v>
+        <v>283528.6032</v>
       </c>
       <c r="AR101">
-        <v>206840.2975</v>
+        <v>283528.6032</v>
       </c>
       <c r="AS101">
-        <v>206840.2975</v>
+        <v>283528.6032</v>
       </c>
     </row>
     <row r="102" spans="1:45">
@@ -13217,112 +13217,112 @@
         <v>0.8</v>
       </c>
       <c r="J102">
-        <v>18633.21001</v>
+        <v>15524.95214</v>
       </c>
       <c r="K102">
-        <v>18633.21001</v>
+        <v>15524.95214</v>
       </c>
       <c r="L102">
-        <v>18633.21001</v>
+        <v>15524.95214</v>
       </c>
       <c r="M102">
-        <v>18633.21001</v>
+        <v>15524.95214</v>
       </c>
       <c r="N102">
-        <v>18633.21001</v>
+        <v>15524.95214</v>
       </c>
       <c r="O102">
-        <v>18633.21001</v>
+        <v>15524.95214</v>
       </c>
       <c r="P102">
-        <v>18633.21001</v>
+        <v>15524.95214</v>
       </c>
       <c r="Q102">
-        <v>18633.21001</v>
+        <v>15524.95214</v>
       </c>
       <c r="R102">
-        <v>18633.21001</v>
+        <v>15524.95214</v>
       </c>
       <c r="S102">
-        <v>18633.21001</v>
+        <v>15524.95214</v>
       </c>
       <c r="T102">
-        <v>18633.21001</v>
+        <v>15524.95214</v>
       </c>
       <c r="U102">
-        <v>18633.21001</v>
+        <v>15524.95214</v>
       </c>
       <c r="V102">
-        <v>18633.21001</v>
+        <v>15524.95214</v>
       </c>
       <c r="W102">
-        <v>18633.21001</v>
+        <v>15524.95214</v>
       </c>
       <c r="X102">
-        <v>18633.21001</v>
+        <v>15524.95214</v>
       </c>
       <c r="Y102">
-        <v>18633.21001</v>
+        <v>15524.95214</v>
       </c>
       <c r="Z102">
-        <v>18633.21001</v>
+        <v>15524.95214</v>
       </c>
       <c r="AA102">
-        <v>18633.21001</v>
+        <v>15524.95214</v>
       </c>
       <c r="AB102">
-        <v>18633.21001</v>
+        <v>15524.95214</v>
       </c>
       <c r="AC102">
-        <v>18633.21001</v>
+        <v>15524.95214</v>
       </c>
       <c r="AD102">
-        <v>18633.21001</v>
+        <v>15524.95214</v>
       </c>
       <c r="AE102">
-        <v>18633.21001</v>
+        <v>15524.95214</v>
       </c>
       <c r="AF102">
-        <v>18633.21001</v>
+        <v>15524.95214</v>
       </c>
       <c r="AG102">
-        <v>18633.21001</v>
+        <v>15524.95214</v>
       </c>
       <c r="AH102">
-        <v>18633.21001</v>
+        <v>15524.95214</v>
       </c>
       <c r="AI102">
-        <v>18633.21001</v>
+        <v>15524.95214</v>
       </c>
       <c r="AJ102">
-        <v>18633.21001</v>
+        <v>15524.95214</v>
       </c>
       <c r="AK102">
-        <v>18633.21001</v>
+        <v>15524.95214</v>
       </c>
       <c r="AL102">
-        <v>18633.21001</v>
+        <v>15524.95214</v>
       </c>
       <c r="AM102">
-        <v>18633.21001</v>
+        <v>15524.95214</v>
       </c>
       <c r="AN102">
-        <v>18633.21001</v>
+        <v>15524.95214</v>
       </c>
       <c r="AO102">
-        <v>18633.21001</v>
+        <v>15524.95214</v>
       </c>
       <c r="AP102">
-        <v>18633.21001</v>
+        <v>15524.95214</v>
       </c>
       <c r="AQ102">
-        <v>18633.21001</v>
+        <v>15524.95214</v>
       </c>
       <c r="AR102">
-        <v>18633.21001</v>
+        <v>15524.95214</v>
       </c>
       <c r="AS102">
-        <v>18633.21001</v>
+        <v>15524.95214</v>
       </c>
     </row>
     <row r="103" spans="1:45">
@@ -13339,112 +13339,112 @@
         <v>0.8</v>
       </c>
       <c r="J103">
-        <v>6893.551159</v>
+        <v>11633.79687</v>
       </c>
       <c r="K103">
-        <v>6893.551159</v>
+        <v>11633.79687</v>
       </c>
       <c r="L103">
-        <v>6893.551159</v>
+        <v>11633.79687</v>
       </c>
       <c r="M103">
-        <v>6893.551159</v>
+        <v>11633.79687</v>
       </c>
       <c r="N103">
-        <v>6893.551159</v>
+        <v>11633.79687</v>
       </c>
       <c r="O103">
-        <v>6893.551159</v>
+        <v>11633.79687</v>
       </c>
       <c r="P103">
-        <v>6893.551159</v>
+        <v>11633.79687</v>
       </c>
       <c r="Q103">
-        <v>6893.551159</v>
+        <v>11633.79687</v>
       </c>
       <c r="R103">
-        <v>6893.551159</v>
+        <v>11633.79687</v>
       </c>
       <c r="S103">
-        <v>6893.551159</v>
+        <v>11633.79687</v>
       </c>
       <c r="T103">
-        <v>6893.551159</v>
+        <v>11633.79687</v>
       </c>
       <c r="U103">
-        <v>6893.551159</v>
+        <v>11633.79687</v>
       </c>
       <c r="V103">
-        <v>6893.551159</v>
+        <v>11633.79687</v>
       </c>
       <c r="W103">
-        <v>6893.551159</v>
+        <v>11633.79687</v>
       </c>
       <c r="X103">
-        <v>6893.551159</v>
+        <v>11633.79687</v>
       </c>
       <c r="Y103">
-        <v>6893.551159</v>
+        <v>11633.79687</v>
       </c>
       <c r="Z103">
-        <v>6893.551159</v>
+        <v>11633.79687</v>
       </c>
       <c r="AA103">
-        <v>6893.551159</v>
+        <v>11633.79687</v>
       </c>
       <c r="AB103">
-        <v>6893.551159</v>
+        <v>11633.79687</v>
       </c>
       <c r="AC103">
-        <v>6893.551159</v>
+        <v>11633.79687</v>
       </c>
       <c r="AD103">
-        <v>6893.551159</v>
+        <v>11633.79687</v>
       </c>
       <c r="AE103">
-        <v>6893.551159</v>
+        <v>11633.79687</v>
       </c>
       <c r="AF103">
-        <v>6893.551159</v>
+        <v>11633.79687</v>
       </c>
       <c r="AG103">
-        <v>6893.551159</v>
+        <v>11633.79687</v>
       </c>
       <c r="AH103">
-        <v>6893.551159</v>
+        <v>11633.79687</v>
       </c>
       <c r="AI103">
-        <v>6893.551159</v>
+        <v>11633.79687</v>
       </c>
       <c r="AJ103">
-        <v>6893.551159</v>
+        <v>11633.79687</v>
       </c>
       <c r="AK103">
-        <v>6893.551159</v>
+        <v>11633.79687</v>
       </c>
       <c r="AL103">
-        <v>6893.551159</v>
+        <v>11633.79687</v>
       </c>
       <c r="AM103">
-        <v>6893.551159</v>
+        <v>11633.79687</v>
       </c>
       <c r="AN103">
-        <v>6893.551159</v>
+        <v>11633.79687</v>
       </c>
       <c r="AO103">
-        <v>6893.551159</v>
+        <v>11633.79687</v>
       </c>
       <c r="AP103">
-        <v>6893.551159</v>
+        <v>11633.79687</v>
       </c>
       <c r="AQ103">
-        <v>6893.551159</v>
+        <v>11633.79687</v>
       </c>
       <c r="AR103">
-        <v>6893.551159</v>
+        <v>11633.79687</v>
       </c>
       <c r="AS103">
-        <v>6893.551159</v>
+        <v>11633.79687</v>
       </c>
     </row>
     <row r="104" spans="1:45">
@@ -13461,112 +13461,112 @@
         <v>0.8</v>
       </c>
       <c r="J104">
-        <v>1045524.074</v>
+        <v>29057.15135</v>
       </c>
       <c r="K104">
-        <v>1045524.074</v>
+        <v>29057.15135</v>
       </c>
       <c r="L104">
-        <v>1045524.074</v>
+        <v>29057.15135</v>
       </c>
       <c r="M104">
-        <v>1045524.074</v>
+        <v>29057.15135</v>
       </c>
       <c r="N104">
-        <v>1045524.074</v>
+        <v>29057.15135</v>
       </c>
       <c r="O104">
-        <v>1045524.074</v>
+        <v>29057.15135</v>
       </c>
       <c r="P104">
-        <v>1045524.074</v>
+        <v>29057.15135</v>
       </c>
       <c r="Q104">
-        <v>1045524.074</v>
+        <v>29057.15135</v>
       </c>
       <c r="R104">
-        <v>1045524.074</v>
+        <v>29057.15135</v>
       </c>
       <c r="S104">
-        <v>1045524.074</v>
+        <v>29057.15135</v>
       </c>
       <c r="T104">
-        <v>1045524.074</v>
+        <v>29057.15135</v>
       </c>
       <c r="U104">
-        <v>1045524.074</v>
+        <v>29057.15135</v>
       </c>
       <c r="V104">
-        <v>1045524.074</v>
+        <v>29057.15135</v>
       </c>
       <c r="W104">
-        <v>1045524.074</v>
+        <v>29057.15135</v>
       </c>
       <c r="X104">
-        <v>1045524.074</v>
+        <v>29057.15135</v>
       </c>
       <c r="Y104">
-        <v>1045524.074</v>
+        <v>29057.15135</v>
       </c>
       <c r="Z104">
-        <v>1045524.074</v>
+        <v>29057.15135</v>
       </c>
       <c r="AA104">
-        <v>1045524.074</v>
+        <v>29057.15135</v>
       </c>
       <c r="AB104">
-        <v>1045524.074</v>
+        <v>29057.15135</v>
       </c>
       <c r="AC104">
-        <v>1045524.074</v>
+        <v>29057.15135</v>
       </c>
       <c r="AD104">
-        <v>1045524.074</v>
+        <v>29057.15135</v>
       </c>
       <c r="AE104">
-        <v>1045524.074</v>
+        <v>29057.15135</v>
       </c>
       <c r="AF104">
-        <v>1045524.074</v>
+        <v>29057.15135</v>
       </c>
       <c r="AG104">
-        <v>1045524.074</v>
+        <v>29057.15135</v>
       </c>
       <c r="AH104">
-        <v>1045524.074</v>
+        <v>29057.15135</v>
       </c>
       <c r="AI104">
-        <v>1045524.074</v>
+        <v>29057.15135</v>
       </c>
       <c r="AJ104">
-        <v>1045524.074</v>
+        <v>29057.15135</v>
       </c>
       <c r="AK104">
-        <v>1045524.074</v>
+        <v>29057.15135</v>
       </c>
       <c r="AL104">
-        <v>1045524.074</v>
+        <v>29057.15135</v>
       </c>
       <c r="AM104">
-        <v>1045524.074</v>
+        <v>29057.15135</v>
       </c>
       <c r="AN104">
-        <v>1045524.074</v>
+        <v>29057.15135</v>
       </c>
       <c r="AO104">
-        <v>1045524.074</v>
+        <v>29057.15135</v>
       </c>
       <c r="AP104">
-        <v>1045524.074</v>
+        <v>29057.15135</v>
       </c>
       <c r="AQ104">
-        <v>1045524.074</v>
+        <v>29057.15135</v>
       </c>
       <c r="AR104">
-        <v>1045524.074</v>
+        <v>29057.15135</v>
       </c>
       <c r="AS104">
-        <v>1045524.074</v>
+        <v>29057.15135</v>
       </c>
     </row>
     <row r="105" spans="1:45">
@@ -13583,112 +13583,112 @@
         <v>0.8</v>
       </c>
       <c r="J105">
-        <v>166113.675</v>
+        <v>1054.207668</v>
       </c>
       <c r="K105">
-        <v>166113.675</v>
+        <v>1054.207668</v>
       </c>
       <c r="L105">
-        <v>166113.675</v>
+        <v>1054.207668</v>
       </c>
       <c r="M105">
-        <v>166113.675</v>
+        <v>1054.207668</v>
       </c>
       <c r="N105">
-        <v>166113.675</v>
+        <v>1054.207668</v>
       </c>
       <c r="O105">
-        <v>166113.675</v>
+        <v>1054.207668</v>
       </c>
       <c r="P105">
-        <v>166113.675</v>
+        <v>1054.207668</v>
       </c>
       <c r="Q105">
-        <v>166113.675</v>
+        <v>1054.207668</v>
       </c>
       <c r="R105">
-        <v>166113.675</v>
+        <v>1054.207668</v>
       </c>
       <c r="S105">
-        <v>166113.675</v>
+        <v>1054.207668</v>
       </c>
       <c r="T105">
-        <v>166113.675</v>
+        <v>1054.207668</v>
       </c>
       <c r="U105">
-        <v>166113.675</v>
+        <v>1054.207668</v>
       </c>
       <c r="V105">
-        <v>166113.675</v>
+        <v>1054.207668</v>
       </c>
       <c r="W105">
-        <v>166113.675</v>
+        <v>1054.207668</v>
       </c>
       <c r="X105">
-        <v>166113.675</v>
+        <v>1054.207668</v>
       </c>
       <c r="Y105">
-        <v>166113.675</v>
+        <v>1054.207668</v>
       </c>
       <c r="Z105">
-        <v>166113.675</v>
+        <v>1054.207668</v>
       </c>
       <c r="AA105">
-        <v>166113.675</v>
+        <v>1054.207668</v>
       </c>
       <c r="AB105">
-        <v>166113.675</v>
+        <v>1054.207668</v>
       </c>
       <c r="AC105">
-        <v>166113.675</v>
+        <v>1054.207668</v>
       </c>
       <c r="AD105">
-        <v>166113.675</v>
+        <v>1054.207668</v>
       </c>
       <c r="AE105">
-        <v>166113.675</v>
+        <v>1054.207668</v>
       </c>
       <c r="AF105">
-        <v>166113.675</v>
+        <v>1054.207668</v>
       </c>
       <c r="AG105">
-        <v>166113.675</v>
+        <v>1054.207668</v>
       </c>
       <c r="AH105">
-        <v>166113.675</v>
+        <v>1054.207668</v>
       </c>
       <c r="AI105">
-        <v>166113.675</v>
+        <v>1054.207668</v>
       </c>
       <c r="AJ105">
-        <v>166113.675</v>
+        <v>1054.207668</v>
       </c>
       <c r="AK105">
-        <v>166113.675</v>
+        <v>1054.207668</v>
       </c>
       <c r="AL105">
-        <v>166113.675</v>
+        <v>1054.207668</v>
       </c>
       <c r="AM105">
-        <v>166113.675</v>
+        <v>1054.207668</v>
       </c>
       <c r="AN105">
-        <v>166113.675</v>
+        <v>1054.207668</v>
       </c>
       <c r="AO105">
-        <v>166113.675</v>
+        <v>1054.207668</v>
       </c>
       <c r="AP105">
-        <v>166113.675</v>
+        <v>1054.207668</v>
       </c>
       <c r="AQ105">
-        <v>166113.675</v>
+        <v>1054.207668</v>
       </c>
       <c r="AR105">
-        <v>166113.675</v>
+        <v>1054.207668</v>
       </c>
       <c r="AS105">
-        <v>166113.675</v>
+        <v>1054.207668</v>
       </c>
     </row>
     <row r="106" spans="1:45">
@@ -13705,112 +13705,112 @@
         <v>0.8</v>
       </c>
       <c r="J106">
-        <v>96845.46376</v>
+        <v>1707.744735</v>
       </c>
       <c r="K106">
-        <v>96845.46376</v>
+        <v>1707.744735</v>
       </c>
       <c r="L106">
-        <v>96845.46376</v>
+        <v>1707.744735</v>
       </c>
       <c r="M106">
-        <v>96845.46376</v>
+        <v>1707.744735</v>
       </c>
       <c r="N106">
-        <v>96845.46376</v>
+        <v>1707.744735</v>
       </c>
       <c r="O106">
-        <v>96845.46376</v>
+        <v>1707.744735</v>
       </c>
       <c r="P106">
-        <v>96845.46376</v>
+        <v>1707.744735</v>
       </c>
       <c r="Q106">
-        <v>96845.46376</v>
+        <v>1707.744735</v>
       </c>
       <c r="R106">
-        <v>96845.46376</v>
+        <v>1707.744735</v>
       </c>
       <c r="S106">
-        <v>96845.46376</v>
+        <v>1707.744735</v>
       </c>
       <c r="T106">
-        <v>96845.46376</v>
+        <v>1707.744735</v>
       </c>
       <c r="U106">
-        <v>96845.46376</v>
+        <v>1707.744735</v>
       </c>
       <c r="V106">
-        <v>96845.46376</v>
+        <v>1707.744735</v>
       </c>
       <c r="W106">
-        <v>96845.46376</v>
+        <v>1707.744735</v>
       </c>
       <c r="X106">
-        <v>96845.46376</v>
+        <v>1707.744735</v>
       </c>
       <c r="Y106">
-        <v>96845.46376</v>
+        <v>1707.744735</v>
       </c>
       <c r="Z106">
-        <v>96845.46376</v>
+        <v>1707.744735</v>
       </c>
       <c r="AA106">
-        <v>96845.46376</v>
+        <v>1707.744735</v>
       </c>
       <c r="AB106">
-        <v>96845.46376</v>
+        <v>1707.744735</v>
       </c>
       <c r="AC106">
-        <v>96845.46376</v>
+        <v>1707.744735</v>
       </c>
       <c r="AD106">
-        <v>96845.46376</v>
+        <v>1707.744735</v>
       </c>
       <c r="AE106">
-        <v>96845.46376</v>
+        <v>1707.744735</v>
       </c>
       <c r="AF106">
-        <v>96845.46376</v>
+        <v>1707.744735</v>
       </c>
       <c r="AG106">
-        <v>96845.46376</v>
+        <v>1707.744735</v>
       </c>
       <c r="AH106">
-        <v>96845.46376</v>
+        <v>1707.744735</v>
       </c>
       <c r="AI106">
-        <v>96845.46376</v>
+        <v>1707.744735</v>
       </c>
       <c r="AJ106">
-        <v>96845.46376</v>
+        <v>1707.744735</v>
       </c>
       <c r="AK106">
-        <v>96845.46376</v>
+        <v>1707.744735</v>
       </c>
       <c r="AL106">
-        <v>96845.46376</v>
+        <v>1707.744735</v>
       </c>
       <c r="AM106">
-        <v>96845.46376</v>
+        <v>1707.744735</v>
       </c>
       <c r="AN106">
-        <v>96845.46376</v>
+        <v>1707.744735</v>
       </c>
       <c r="AO106">
-        <v>96845.46376</v>
+        <v>1707.744735</v>
       </c>
       <c r="AP106">
-        <v>96845.46376</v>
+        <v>1707.744735</v>
       </c>
       <c r="AQ106">
-        <v>96845.46376</v>
+        <v>1707.744735</v>
       </c>
       <c r="AR106">
-        <v>96845.46376</v>
+        <v>1707.744735</v>
       </c>
       <c r="AS106">
-        <v>96845.46376</v>
+        <v>1707.744735</v>
       </c>
     </row>
     <row r="107" spans="1:45">
@@ -13827,112 +13827,112 @@
         <v>0.8</v>
       </c>
       <c r="J107">
-        <v>40936.27952</v>
+        <v>21786.22172</v>
       </c>
       <c r="K107">
-        <v>40936.27952</v>
+        <v>21786.22172</v>
       </c>
       <c r="L107">
-        <v>40936.27952</v>
+        <v>21786.22172</v>
       </c>
       <c r="M107">
-        <v>40936.27952</v>
+        <v>21786.22172</v>
       </c>
       <c r="N107">
-        <v>40936.27952</v>
+        <v>21786.22172</v>
       </c>
       <c r="O107">
-        <v>40936.27952</v>
+        <v>21786.22172</v>
       </c>
       <c r="P107">
-        <v>40936.27952</v>
+        <v>21786.22172</v>
       </c>
       <c r="Q107">
-        <v>40936.27952</v>
+        <v>21786.22172</v>
       </c>
       <c r="R107">
-        <v>40936.27952</v>
+        <v>21786.22172</v>
       </c>
       <c r="S107">
-        <v>40936.27952</v>
+        <v>21786.22172</v>
       </c>
       <c r="T107">
-        <v>40936.27952</v>
+        <v>21786.22172</v>
       </c>
       <c r="U107">
-        <v>40936.27952</v>
+        <v>21786.22172</v>
       </c>
       <c r="V107">
-        <v>40936.27952</v>
+        <v>21786.22172</v>
       </c>
       <c r="W107">
-        <v>40936.27952</v>
+        <v>21786.22172</v>
       </c>
       <c r="X107">
-        <v>40936.27952</v>
+        <v>21786.22172</v>
       </c>
       <c r="Y107">
-        <v>40936.27952</v>
+        <v>21786.22172</v>
       </c>
       <c r="Z107">
-        <v>40936.27952</v>
+        <v>21786.22172</v>
       </c>
       <c r="AA107">
-        <v>40936.27952</v>
+        <v>21786.22172</v>
       </c>
       <c r="AB107">
-        <v>40936.27952</v>
+        <v>21786.22172</v>
       </c>
       <c r="AC107">
-        <v>40936.27952</v>
+        <v>21786.22172</v>
       </c>
       <c r="AD107">
-        <v>40936.27952</v>
+        <v>21786.22172</v>
       </c>
       <c r="AE107">
-        <v>40936.27952</v>
+        <v>21786.22172</v>
       </c>
       <c r="AF107">
-        <v>40936.27952</v>
+        <v>21786.22172</v>
       </c>
       <c r="AG107">
-        <v>40936.27952</v>
+        <v>21786.22172</v>
       </c>
       <c r="AH107">
-        <v>40936.27952</v>
+        <v>21786.22172</v>
       </c>
       <c r="AI107">
-        <v>40936.27952</v>
+        <v>21786.22172</v>
       </c>
       <c r="AJ107">
-        <v>40936.27952</v>
+        <v>21786.22172</v>
       </c>
       <c r="AK107">
-        <v>40936.27952</v>
+        <v>21786.22172</v>
       </c>
       <c r="AL107">
-        <v>40936.27952</v>
+        <v>21786.22172</v>
       </c>
       <c r="AM107">
-        <v>40936.27952</v>
+        <v>21786.22172</v>
       </c>
       <c r="AN107">
-        <v>40936.27952</v>
+        <v>21786.22172</v>
       </c>
       <c r="AO107">
-        <v>40936.27952</v>
+        <v>21786.22172</v>
       </c>
       <c r="AP107">
-        <v>40936.27952</v>
+        <v>21786.22172</v>
       </c>
       <c r="AQ107">
-        <v>40936.27952</v>
+        <v>21786.22172</v>
       </c>
       <c r="AR107">
-        <v>40936.27952</v>
+        <v>21786.22172</v>
       </c>
       <c r="AS107">
-        <v>40936.27952</v>
+        <v>21786.22172</v>
       </c>
     </row>
     <row r="108" spans="1:45">
@@ -14681,112 +14681,112 @@
         <v>0.8</v>
       </c>
       <c r="J114">
-        <v>1402.040923</v>
+        <v>27.6712064</v>
       </c>
       <c r="K114">
-        <v>1402.040923</v>
+        <v>27.6712064</v>
       </c>
       <c r="L114">
-        <v>1402.040923</v>
+        <v>27.6712064</v>
       </c>
       <c r="M114">
-        <v>1402.040923</v>
+        <v>27.6712064</v>
       </c>
       <c r="N114">
-        <v>1402.040923</v>
+        <v>27.6712064</v>
       </c>
       <c r="O114">
-        <v>1402.040923</v>
+        <v>27.6712064</v>
       </c>
       <c r="P114">
-        <v>1402.040923</v>
+        <v>27.6712064</v>
       </c>
       <c r="Q114">
-        <v>1402.040923</v>
+        <v>27.6712064</v>
       </c>
       <c r="R114">
-        <v>1402.040923</v>
+        <v>27.6712064</v>
       </c>
       <c r="S114">
-        <v>1402.040923</v>
+        <v>27.6712064</v>
       </c>
       <c r="T114">
-        <v>1402.040923</v>
+        <v>27.6712064</v>
       </c>
       <c r="U114">
-        <v>1402.040923</v>
+        <v>27.6712064</v>
       </c>
       <c r="V114">
-        <v>1402.040923</v>
+        <v>27.6712064</v>
       </c>
       <c r="W114">
-        <v>1402.040923</v>
+        <v>27.6712064</v>
       </c>
       <c r="X114">
-        <v>1402.040923</v>
+        <v>27.6712064</v>
       </c>
       <c r="Y114">
-        <v>1402.040923</v>
+        <v>27.6712064</v>
       </c>
       <c r="Z114">
-        <v>1402.040923</v>
+        <v>27.6712064</v>
       </c>
       <c r="AA114">
-        <v>1402.040923</v>
+        <v>27.6712064</v>
       </c>
       <c r="AB114">
-        <v>1402.040923</v>
+        <v>27.6712064</v>
       </c>
       <c r="AC114">
-        <v>1402.040923</v>
+        <v>27.6712064</v>
       </c>
       <c r="AD114">
-        <v>1402.040923</v>
+        <v>27.6712064</v>
       </c>
       <c r="AE114">
-        <v>1402.040923</v>
+        <v>27.6712064</v>
       </c>
       <c r="AF114">
-        <v>1402.040923</v>
+        <v>27.6712064</v>
       </c>
       <c r="AG114">
-        <v>1402.040923</v>
+        <v>27.6712064</v>
       </c>
       <c r="AH114">
-        <v>1402.040923</v>
+        <v>27.6712064</v>
       </c>
       <c r="AI114">
-        <v>1402.040923</v>
+        <v>27.6712064</v>
       </c>
       <c r="AJ114">
-        <v>1402.040923</v>
+        <v>27.6712064</v>
       </c>
       <c r="AK114">
-        <v>1402.040923</v>
+        <v>27.6712064</v>
       </c>
       <c r="AL114">
-        <v>1402.040923</v>
+        <v>27.6712064</v>
       </c>
       <c r="AM114">
-        <v>1402.040923</v>
+        <v>27.6712064</v>
       </c>
       <c r="AN114">
-        <v>1402.040923</v>
+        <v>27.6712064</v>
       </c>
       <c r="AO114">
-        <v>1402.040923</v>
+        <v>27.6712064</v>
       </c>
       <c r="AP114">
-        <v>1402.040923</v>
+        <v>27.6712064</v>
       </c>
       <c r="AQ114">
-        <v>1402.040923</v>
+        <v>27.6712064</v>
       </c>
       <c r="AR114">
-        <v>1402.040923</v>
+        <v>27.6712064</v>
       </c>
       <c r="AS114">
-        <v>1402.040923</v>
+        <v>27.6712064</v>
       </c>
     </row>
     <row r="115" spans="1:45">
@@ -14803,112 +14803,112 @@
         <v>0.8</v>
       </c>
       <c r="J115">
-        <v>6281.742267</v>
+        <v>13123.17814</v>
       </c>
       <c r="K115">
-        <v>6281.742267</v>
+        <v>13123.17814</v>
       </c>
       <c r="L115">
-        <v>6281.742267</v>
+        <v>13123.17814</v>
       </c>
       <c r="M115">
-        <v>6281.742267</v>
+        <v>13123.17814</v>
       </c>
       <c r="N115">
-        <v>6281.742267</v>
+        <v>13123.17814</v>
       </c>
       <c r="O115">
-        <v>6281.742267</v>
+        <v>13123.17814</v>
       </c>
       <c r="P115">
-        <v>6281.742267</v>
+        <v>13123.17814</v>
       </c>
       <c r="Q115">
-        <v>6281.742267</v>
+        <v>13123.17814</v>
       </c>
       <c r="R115">
-        <v>6281.742267</v>
+        <v>13123.17814</v>
       </c>
       <c r="S115">
-        <v>6281.742267</v>
+        <v>13123.17814</v>
       </c>
       <c r="T115">
-        <v>6281.742267</v>
+        <v>13123.17814</v>
       </c>
       <c r="U115">
-        <v>6281.742267</v>
+        <v>13123.17814</v>
       </c>
       <c r="V115">
-        <v>6281.742267</v>
+        <v>13123.17814</v>
       </c>
       <c r="W115">
-        <v>6281.742267</v>
+        <v>13123.17814</v>
       </c>
       <c r="X115">
-        <v>6281.742267</v>
+        <v>13123.17814</v>
       </c>
       <c r="Y115">
-        <v>6281.742267</v>
+        <v>13123.17814</v>
       </c>
       <c r="Z115">
-        <v>6281.742267</v>
+        <v>13123.17814</v>
       </c>
       <c r="AA115">
-        <v>6281.742267</v>
+        <v>13123.17814</v>
       </c>
       <c r="AB115">
-        <v>6281.742267</v>
+        <v>13123.17814</v>
       </c>
       <c r="AC115">
-        <v>6281.742267</v>
+        <v>13123.17814</v>
       </c>
       <c r="AD115">
-        <v>6281.742267</v>
+        <v>13123.17814</v>
       </c>
       <c r="AE115">
-        <v>6281.742267</v>
+        <v>13123.17814</v>
       </c>
       <c r="AF115">
-        <v>6281.742267</v>
+        <v>13123.17814</v>
       </c>
       <c r="AG115">
-        <v>6281.742267</v>
+        <v>13123.17814</v>
       </c>
       <c r="AH115">
-        <v>6281.742267</v>
+        <v>13123.17814</v>
       </c>
       <c r="AI115">
-        <v>6281.742267</v>
+        <v>13123.17814</v>
       </c>
       <c r="AJ115">
-        <v>6281.742267</v>
+        <v>13123.17814</v>
       </c>
       <c r="AK115">
-        <v>6281.742267</v>
+        <v>13123.17814</v>
       </c>
       <c r="AL115">
-        <v>6281.742267</v>
+        <v>13123.17814</v>
       </c>
       <c r="AM115">
-        <v>6281.742267</v>
+        <v>13123.17814</v>
       </c>
       <c r="AN115">
-        <v>6281.742267</v>
+        <v>13123.17814</v>
       </c>
       <c r="AO115">
-        <v>6281.742267</v>
+        <v>13123.17814</v>
       </c>
       <c r="AP115">
-        <v>6281.742267</v>
+        <v>13123.17814</v>
       </c>
       <c r="AQ115">
-        <v>6281.742267</v>
+        <v>13123.17814</v>
       </c>
       <c r="AR115">
-        <v>6281.742267</v>
+        <v>13123.17814</v>
       </c>
       <c r="AS115">
-        <v>6281.742267</v>
+        <v>13123.17814</v>
       </c>
     </row>
     <row r="116" spans="1:45">

--- a/ref/ingestion/calibrated/jamaica/model_input_variables_jamaica_ip_calibrated.xlsx
+++ b/ref/ingestion/calibrated/jamaica/model_input_variables_jamaica_ip_calibrated.xlsx
@@ -1252,112 +1252,112 @@
         <v>1</v>
       </c>
       <c r="J4">
-        <v>1.010988889</v>
+        <v>1</v>
       </c>
       <c r="K4">
-        <v>1.010988889</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>1.010988889</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>1.010988889</v>
+        <v>1</v>
       </c>
       <c r="N4">
-        <v>1.010988889</v>
+        <v>1</v>
       </c>
       <c r="O4">
-        <v>1.010988889</v>
+        <v>1</v>
       </c>
       <c r="P4">
-        <v>1.010988889</v>
+        <v>1</v>
       </c>
       <c r="Q4">
-        <v>1.010988889</v>
+        <v>1</v>
       </c>
       <c r="R4">
-        <v>1.010988889</v>
+        <v>1</v>
       </c>
       <c r="S4">
-        <v>1.010988889</v>
+        <v>1</v>
       </c>
       <c r="T4">
-        <v>1.010988889</v>
+        <v>1</v>
       </c>
       <c r="U4">
-        <v>1.010988889</v>
+        <v>1</v>
       </c>
       <c r="V4">
-        <v>1.010988889</v>
+        <v>1</v>
       </c>
       <c r="W4">
-        <v>1.010988889</v>
+        <v>1</v>
       </c>
       <c r="X4">
-        <v>1.010988889</v>
+        <v>1</v>
       </c>
       <c r="Y4">
-        <v>1.010988889</v>
+        <v>1</v>
       </c>
       <c r="Z4">
-        <v>1.010988889</v>
+        <v>1</v>
       </c>
       <c r="AA4">
-        <v>1.010988889</v>
+        <v>1</v>
       </c>
       <c r="AB4">
-        <v>1.010988889</v>
+        <v>1</v>
       </c>
       <c r="AC4">
-        <v>1.010988889</v>
+        <v>1</v>
       </c>
       <c r="AD4">
-        <v>1.010988889</v>
+        <v>1</v>
       </c>
       <c r="AE4">
-        <v>1.010988889</v>
+        <v>1</v>
       </c>
       <c r="AF4">
-        <v>1.010988889</v>
+        <v>1</v>
       </c>
       <c r="AG4">
-        <v>1.010988889</v>
+        <v>1</v>
       </c>
       <c r="AH4">
-        <v>1.010988889</v>
+        <v>1</v>
       </c>
       <c r="AI4">
-        <v>1.010988889</v>
+        <v>1</v>
       </c>
       <c r="AJ4">
-        <v>1.010988889</v>
+        <v>1</v>
       </c>
       <c r="AK4">
-        <v>1.010988889</v>
+        <v>1</v>
       </c>
       <c r="AL4">
-        <v>1.010988889</v>
+        <v>1</v>
       </c>
       <c r="AM4">
-        <v>1.010988889</v>
+        <v>1</v>
       </c>
       <c r="AN4">
-        <v>1.010988889</v>
+        <v>1</v>
       </c>
       <c r="AO4">
-        <v>1.010988889</v>
+        <v>1</v>
       </c>
       <c r="AP4">
-        <v>1.010988889</v>
+        <v>1</v>
       </c>
       <c r="AQ4">
-        <v>1.010988889</v>
+        <v>1</v>
       </c>
       <c r="AR4">
-        <v>1.010988889</v>
+        <v>1</v>
       </c>
       <c r="AS4">
-        <v>1.010988889</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:45">
@@ -1374,112 +1374,112 @@
         <v>1</v>
       </c>
       <c r="J5">
-        <v>0.9298601399999999</v>
+        <v>1</v>
       </c>
       <c r="K5">
-        <v>0.9298601399999999</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>0.9298601399999999</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.9298601399999999</v>
+        <v>1</v>
       </c>
       <c r="N5">
-        <v>0.9298601399999999</v>
+        <v>1</v>
       </c>
       <c r="O5">
-        <v>0.9298601399999999</v>
+        <v>1</v>
       </c>
       <c r="P5">
-        <v>0.9298601399999999</v>
+        <v>1</v>
       </c>
       <c r="Q5">
-        <v>0.9298601399999999</v>
+        <v>1</v>
       </c>
       <c r="R5">
-        <v>0.9298601399999999</v>
+        <v>1</v>
       </c>
       <c r="S5">
-        <v>0.9298601399999999</v>
+        <v>1</v>
       </c>
       <c r="T5">
-        <v>0.9298601399999999</v>
+        <v>1</v>
       </c>
       <c r="U5">
-        <v>0.9298601399999999</v>
+        <v>1</v>
       </c>
       <c r="V5">
-        <v>0.9298601399999999</v>
+        <v>1</v>
       </c>
       <c r="W5">
-        <v>0.9298601399999999</v>
+        <v>1</v>
       </c>
       <c r="X5">
-        <v>0.9298601399999999</v>
+        <v>1</v>
       </c>
       <c r="Y5">
-        <v>0.9298601399999999</v>
+        <v>1</v>
       </c>
       <c r="Z5">
-        <v>0.9298601399999999</v>
+        <v>1</v>
       </c>
       <c r="AA5">
-        <v>0.9298601399999999</v>
+        <v>1</v>
       </c>
       <c r="AB5">
-        <v>0.9298601399999999</v>
+        <v>1</v>
       </c>
       <c r="AC5">
-        <v>0.9298601399999999</v>
+        <v>1</v>
       </c>
       <c r="AD5">
-        <v>0.9298601399999999</v>
+        <v>1</v>
       </c>
       <c r="AE5">
-        <v>0.9298601399999999</v>
+        <v>1</v>
       </c>
       <c r="AF5">
-        <v>0.9298601399999999</v>
+        <v>1</v>
       </c>
       <c r="AG5">
-        <v>0.9298601399999999</v>
+        <v>1</v>
       </c>
       <c r="AH5">
-        <v>0.9298601399999999</v>
+        <v>1</v>
       </c>
       <c r="AI5">
-        <v>0.9298601399999999</v>
+        <v>1</v>
       </c>
       <c r="AJ5">
-        <v>0.9298601399999999</v>
+        <v>1</v>
       </c>
       <c r="AK5">
-        <v>0.9298601399999999</v>
+        <v>1</v>
       </c>
       <c r="AL5">
-        <v>0.9298601399999999</v>
+        <v>1</v>
       </c>
       <c r="AM5">
-        <v>0.9298601399999999</v>
+        <v>1</v>
       </c>
       <c r="AN5">
-        <v>0.9298601399999999</v>
+        <v>1</v>
       </c>
       <c r="AO5">
-        <v>0.9298601399999999</v>
+        <v>1</v>
       </c>
       <c r="AP5">
-        <v>0.9298601399999999</v>
+        <v>1</v>
       </c>
       <c r="AQ5">
-        <v>0.9298601399999999</v>
+        <v>1</v>
       </c>
       <c r="AR5">
-        <v>0.9298601399999999</v>
+        <v>1</v>
       </c>
       <c r="AS5">
-        <v>0.9298601399999999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:45">
@@ -1496,112 +1496,112 @@
         <v>1</v>
       </c>
       <c r="J6">
-        <v>1.001327692</v>
+        <v>1</v>
       </c>
       <c r="K6">
-        <v>1.001327692</v>
+        <v>1</v>
       </c>
       <c r="L6">
-        <v>1.001327692</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>1.001327692</v>
+        <v>1</v>
       </c>
       <c r="N6">
-        <v>1.001327692</v>
+        <v>1</v>
       </c>
       <c r="O6">
-        <v>1.001327692</v>
+        <v>1</v>
       </c>
       <c r="P6">
-        <v>1.001327692</v>
+        <v>1</v>
       </c>
       <c r="Q6">
-        <v>1.001327692</v>
+        <v>1</v>
       </c>
       <c r="R6">
-        <v>1.001327692</v>
+        <v>1</v>
       </c>
       <c r="S6">
-        <v>1.001327692</v>
+        <v>1</v>
       </c>
       <c r="T6">
-        <v>1.001327692</v>
+        <v>1</v>
       </c>
       <c r="U6">
-        <v>1.001327692</v>
+        <v>1</v>
       </c>
       <c r="V6">
-        <v>1.001327692</v>
+        <v>1</v>
       </c>
       <c r="W6">
-        <v>1.001327692</v>
+        <v>1</v>
       </c>
       <c r="X6">
-        <v>1.001327692</v>
+        <v>1</v>
       </c>
       <c r="Y6">
-        <v>1.001327692</v>
+        <v>1</v>
       </c>
       <c r="Z6">
-        <v>1.001327692</v>
+        <v>1</v>
       </c>
       <c r="AA6">
-        <v>1.001327692</v>
+        <v>1</v>
       </c>
       <c r="AB6">
-        <v>1.001327692</v>
+        <v>1</v>
       </c>
       <c r="AC6">
-        <v>1.001327692</v>
+        <v>1</v>
       </c>
       <c r="AD6">
-        <v>1.001327692</v>
+        <v>1</v>
       </c>
       <c r="AE6">
-        <v>1.001327692</v>
+        <v>1</v>
       </c>
       <c r="AF6">
-        <v>1.001327692</v>
+        <v>1</v>
       </c>
       <c r="AG6">
-        <v>1.001327692</v>
+        <v>1</v>
       </c>
       <c r="AH6">
-        <v>1.001327692</v>
+        <v>1</v>
       </c>
       <c r="AI6">
-        <v>1.001327692</v>
+        <v>1</v>
       </c>
       <c r="AJ6">
-        <v>1.001327692</v>
+        <v>1</v>
       </c>
       <c r="AK6">
-        <v>1.001327692</v>
+        <v>1</v>
       </c>
       <c r="AL6">
-        <v>1.001327692</v>
+        <v>1</v>
       </c>
       <c r="AM6">
-        <v>1.001327692</v>
+        <v>1</v>
       </c>
       <c r="AN6">
-        <v>1.001327692</v>
+        <v>1</v>
       </c>
       <c r="AO6">
-        <v>1.001327692</v>
+        <v>1</v>
       </c>
       <c r="AP6">
-        <v>1.001327692</v>
+        <v>1</v>
       </c>
       <c r="AQ6">
-        <v>1.001327692</v>
+        <v>1</v>
       </c>
       <c r="AR6">
-        <v>1.001327692</v>
+        <v>1</v>
       </c>
       <c r="AS6">
-        <v>1.001327692</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:45">
@@ -1618,112 +1618,112 @@
         <v>1</v>
       </c>
       <c r="J7">
-        <v>0.9467837019999999</v>
+        <v>1</v>
       </c>
       <c r="K7">
-        <v>0.9467837019999999</v>
+        <v>1</v>
       </c>
       <c r="L7">
-        <v>0.9467837019999999</v>
+        <v>1</v>
       </c>
       <c r="M7">
-        <v>0.9467837019999999</v>
+        <v>1</v>
       </c>
       <c r="N7">
-        <v>0.9467837019999999</v>
+        <v>1</v>
       </c>
       <c r="O7">
-        <v>0.9467837019999999</v>
+        <v>1</v>
       </c>
       <c r="P7">
-        <v>0.9467837019999999</v>
+        <v>1</v>
       </c>
       <c r="Q7">
-        <v>0.9467837019999999</v>
+        <v>1</v>
       </c>
       <c r="R7">
-        <v>0.9467837019999999</v>
+        <v>1</v>
       </c>
       <c r="S7">
-        <v>0.9467837019999999</v>
+        <v>1</v>
       </c>
       <c r="T7">
-        <v>0.9467837019999999</v>
+        <v>1</v>
       </c>
       <c r="U7">
-        <v>0.9467837019999999</v>
+        <v>1</v>
       </c>
       <c r="V7">
-        <v>0.9467837019999999</v>
+        <v>1</v>
       </c>
       <c r="W7">
-        <v>0.9467837019999999</v>
+        <v>1</v>
       </c>
       <c r="X7">
-        <v>0.9467837019999999</v>
+        <v>1</v>
       </c>
       <c r="Y7">
-        <v>0.9467837019999999</v>
+        <v>1</v>
       </c>
       <c r="Z7">
-        <v>0.9467837019999999</v>
+        <v>1</v>
       </c>
       <c r="AA7">
-        <v>0.9467837019999999</v>
+        <v>1</v>
       </c>
       <c r="AB7">
-        <v>0.9467837019999999</v>
+        <v>1</v>
       </c>
       <c r="AC7">
-        <v>0.9467837019999999</v>
+        <v>1</v>
       </c>
       <c r="AD7">
-        <v>0.9467837019999999</v>
+        <v>1</v>
       </c>
       <c r="AE7">
-        <v>0.9467837019999999</v>
+        <v>1</v>
       </c>
       <c r="AF7">
-        <v>0.9467837019999999</v>
+        <v>1</v>
       </c>
       <c r="AG7">
-        <v>0.9467837019999999</v>
+        <v>1</v>
       </c>
       <c r="AH7">
-        <v>0.9467837019999999</v>
+        <v>1</v>
       </c>
       <c r="AI7">
-        <v>0.9467837019999999</v>
+        <v>1</v>
       </c>
       <c r="AJ7">
-        <v>0.9467837019999999</v>
+        <v>1</v>
       </c>
       <c r="AK7">
-        <v>0.9467837019999999</v>
+        <v>1</v>
       </c>
       <c r="AL7">
-        <v>0.9467837019999999</v>
+        <v>1</v>
       </c>
       <c r="AM7">
-        <v>0.9467837019999999</v>
+        <v>1</v>
       </c>
       <c r="AN7">
-        <v>0.9467837019999999</v>
+        <v>1</v>
       </c>
       <c r="AO7">
-        <v>0.9467837019999999</v>
+        <v>1</v>
       </c>
       <c r="AP7">
-        <v>0.9467837019999999</v>
+        <v>1</v>
       </c>
       <c r="AQ7">
-        <v>0.9467837019999999</v>
+        <v>1</v>
       </c>
       <c r="AR7">
-        <v>0.9467837019999999</v>
+        <v>1</v>
       </c>
       <c r="AS7">
-        <v>0.9467837019999999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:45">
@@ -1740,112 +1740,112 @@
         <v>1</v>
       </c>
       <c r="J8">
-        <v>1.031788685</v>
+        <v>1</v>
       </c>
       <c r="K8">
-        <v>1.031788685</v>
+        <v>1</v>
       </c>
       <c r="L8">
-        <v>1.031788685</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>1.031788685</v>
+        <v>1</v>
       </c>
       <c r="N8">
-        <v>1.031788685</v>
+        <v>1</v>
       </c>
       <c r="O8">
-        <v>1.031788685</v>
+        <v>1</v>
       </c>
       <c r="P8">
-        <v>1.031788685</v>
+        <v>1</v>
       </c>
       <c r="Q8">
-        <v>1.031788685</v>
+        <v>1</v>
       </c>
       <c r="R8">
-        <v>1.031788685</v>
+        <v>1</v>
       </c>
       <c r="S8">
-        <v>1.031788685</v>
+        <v>1</v>
       </c>
       <c r="T8">
-        <v>1.031788685</v>
+        <v>1</v>
       </c>
       <c r="U8">
-        <v>1.031788685</v>
+        <v>1</v>
       </c>
       <c r="V8">
-        <v>1.031788685</v>
+        <v>1</v>
       </c>
       <c r="W8">
-        <v>1.031788685</v>
+        <v>1</v>
       </c>
       <c r="X8">
-        <v>1.031788685</v>
+        <v>1</v>
       </c>
       <c r="Y8">
-        <v>1.031788685</v>
+        <v>1</v>
       </c>
       <c r="Z8">
-        <v>1.031788685</v>
+        <v>1</v>
       </c>
       <c r="AA8">
-        <v>1.031788685</v>
+        <v>1</v>
       </c>
       <c r="AB8">
-        <v>1.031788685</v>
+        <v>1</v>
       </c>
       <c r="AC8">
-        <v>1.031788685</v>
+        <v>1</v>
       </c>
       <c r="AD8">
-        <v>1.031788685</v>
+        <v>1</v>
       </c>
       <c r="AE8">
-        <v>1.031788685</v>
+        <v>1</v>
       </c>
       <c r="AF8">
-        <v>1.031788685</v>
+        <v>1</v>
       </c>
       <c r="AG8">
-        <v>1.031788685</v>
+        <v>1</v>
       </c>
       <c r="AH8">
-        <v>1.031788685</v>
+        <v>1</v>
       </c>
       <c r="AI8">
-        <v>1.031788685</v>
+        <v>1</v>
       </c>
       <c r="AJ8">
-        <v>1.031788685</v>
+        <v>1</v>
       </c>
       <c r="AK8">
-        <v>1.031788685</v>
+        <v>1</v>
       </c>
       <c r="AL8">
-        <v>1.031788685</v>
+        <v>1</v>
       </c>
       <c r="AM8">
-        <v>1.031788685</v>
+        <v>1</v>
       </c>
       <c r="AN8">
-        <v>1.031788685</v>
+        <v>1</v>
       </c>
       <c r="AO8">
-        <v>1.031788685</v>
+        <v>1</v>
       </c>
       <c r="AP8">
-        <v>1.031788685</v>
+        <v>1</v>
       </c>
       <c r="AQ8">
-        <v>1.031788685</v>
+        <v>1</v>
       </c>
       <c r="AR8">
-        <v>1.031788685</v>
+        <v>1</v>
       </c>
       <c r="AS8">
-        <v>1.031788685</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:45">
@@ -1862,112 +1862,112 @@
         <v>1</v>
       </c>
       <c r="J9">
-        <v>0.982997083</v>
+        <v>1</v>
       </c>
       <c r="K9">
-        <v>0.982997083</v>
+        <v>1</v>
       </c>
       <c r="L9">
-        <v>0.982997083</v>
+        <v>1</v>
       </c>
       <c r="M9">
-        <v>0.982997083</v>
+        <v>1</v>
       </c>
       <c r="N9">
-        <v>0.982997083</v>
+        <v>1</v>
       </c>
       <c r="O9">
-        <v>0.982997083</v>
+        <v>1</v>
       </c>
       <c r="P9">
-        <v>0.982997083</v>
+        <v>1</v>
       </c>
       <c r="Q9">
-        <v>0.982997083</v>
+        <v>1</v>
       </c>
       <c r="R9">
-        <v>0.982997083</v>
+        <v>1</v>
       </c>
       <c r="S9">
-        <v>0.982997083</v>
+        <v>1</v>
       </c>
       <c r="T9">
-        <v>0.982997083</v>
+        <v>1</v>
       </c>
       <c r="U9">
-        <v>0.982997083</v>
+        <v>1</v>
       </c>
       <c r="V9">
-        <v>0.982997083</v>
+        <v>1</v>
       </c>
       <c r="W9">
-        <v>0.982997083</v>
+        <v>1</v>
       </c>
       <c r="X9">
-        <v>0.982997083</v>
+        <v>1</v>
       </c>
       <c r="Y9">
-        <v>0.982997083</v>
+        <v>1</v>
       </c>
       <c r="Z9">
-        <v>0.982997083</v>
+        <v>1</v>
       </c>
       <c r="AA9">
-        <v>0.982997083</v>
+        <v>1</v>
       </c>
       <c r="AB9">
-        <v>0.982997083</v>
+        <v>1</v>
       </c>
       <c r="AC9">
-        <v>0.982997083</v>
+        <v>1</v>
       </c>
       <c r="AD9">
-        <v>0.982997083</v>
+        <v>1</v>
       </c>
       <c r="AE9">
-        <v>0.982997083</v>
+        <v>1</v>
       </c>
       <c r="AF9">
-        <v>0.982997083</v>
+        <v>1</v>
       </c>
       <c r="AG9">
-        <v>0.982997083</v>
+        <v>1</v>
       </c>
       <c r="AH9">
-        <v>0.982997083</v>
+        <v>1</v>
       </c>
       <c r="AI9">
-        <v>0.982997083</v>
+        <v>1</v>
       </c>
       <c r="AJ9">
-        <v>0.982997083</v>
+        <v>1</v>
       </c>
       <c r="AK9">
-        <v>0.982997083</v>
+        <v>1</v>
       </c>
       <c r="AL9">
-        <v>0.982997083</v>
+        <v>1</v>
       </c>
       <c r="AM9">
-        <v>0.982997083</v>
+        <v>1</v>
       </c>
       <c r="AN9">
-        <v>0.982997083</v>
+        <v>1</v>
       </c>
       <c r="AO9">
-        <v>0.982997083</v>
+        <v>1</v>
       </c>
       <c r="AP9">
-        <v>0.982997083</v>
+        <v>1</v>
       </c>
       <c r="AQ9">
-        <v>0.982997083</v>
+        <v>1</v>
       </c>
       <c r="AR9">
-        <v>0.982997083</v>
+        <v>1</v>
       </c>
       <c r="AS9">
-        <v>0.982997083</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:45">
@@ -1984,112 +1984,112 @@
         <v>1</v>
       </c>
       <c r="J10">
-        <v>0.996146954</v>
+        <v>1</v>
       </c>
       <c r="K10">
-        <v>0.996146954</v>
+        <v>1</v>
       </c>
       <c r="L10">
-        <v>0.996146954</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>0.996146954</v>
+        <v>1</v>
       </c>
       <c r="N10">
-        <v>0.996146954</v>
+        <v>1</v>
       </c>
       <c r="O10">
-        <v>0.996146954</v>
+        <v>1</v>
       </c>
       <c r="P10">
-        <v>0.996146954</v>
+        <v>1</v>
       </c>
       <c r="Q10">
-        <v>0.996146954</v>
+        <v>1</v>
       </c>
       <c r="R10">
-        <v>0.996146954</v>
+        <v>1</v>
       </c>
       <c r="S10">
-        <v>0.996146954</v>
+        <v>1</v>
       </c>
       <c r="T10">
-        <v>0.996146954</v>
+        <v>1</v>
       </c>
       <c r="U10">
-        <v>0.996146954</v>
+        <v>1</v>
       </c>
       <c r="V10">
-        <v>0.996146954</v>
+        <v>1</v>
       </c>
       <c r="W10">
-        <v>0.996146954</v>
+        <v>1</v>
       </c>
       <c r="X10">
-        <v>0.996146954</v>
+        <v>1</v>
       </c>
       <c r="Y10">
-        <v>0.996146954</v>
+        <v>1</v>
       </c>
       <c r="Z10">
-        <v>0.996146954</v>
+        <v>1</v>
       </c>
       <c r="AA10">
-        <v>0.996146954</v>
+        <v>1</v>
       </c>
       <c r="AB10">
-        <v>0.996146954</v>
+        <v>1</v>
       </c>
       <c r="AC10">
-        <v>0.996146954</v>
+        <v>1</v>
       </c>
       <c r="AD10">
-        <v>0.996146954</v>
+        <v>1</v>
       </c>
       <c r="AE10">
-        <v>0.996146954</v>
+        <v>1</v>
       </c>
       <c r="AF10">
-        <v>0.996146954</v>
+        <v>1</v>
       </c>
       <c r="AG10">
-        <v>0.996146954</v>
+        <v>1</v>
       </c>
       <c r="AH10">
-        <v>0.996146954</v>
+        <v>1</v>
       </c>
       <c r="AI10">
-        <v>0.996146954</v>
+        <v>1</v>
       </c>
       <c r="AJ10">
-        <v>0.996146954</v>
+        <v>1</v>
       </c>
       <c r="AK10">
-        <v>0.996146954</v>
+        <v>1</v>
       </c>
       <c r="AL10">
-        <v>0.996146954</v>
+        <v>1</v>
       </c>
       <c r="AM10">
-        <v>0.996146954</v>
+        <v>1</v>
       </c>
       <c r="AN10">
-        <v>0.996146954</v>
+        <v>1</v>
       </c>
       <c r="AO10">
-        <v>0.996146954</v>
+        <v>1</v>
       </c>
       <c r="AP10">
-        <v>0.996146954</v>
+        <v>1</v>
       </c>
       <c r="AQ10">
-        <v>0.996146954</v>
+        <v>1</v>
       </c>
       <c r="AR10">
-        <v>0.996146954</v>
+        <v>1</v>
       </c>
       <c r="AS10">
-        <v>0.996146954</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:45">
@@ -2228,112 +2228,112 @@
         <v>1</v>
       </c>
       <c r="J12">
-        <v>0.972355717</v>
+        <v>1</v>
       </c>
       <c r="K12">
-        <v>0.972355717</v>
+        <v>1</v>
       </c>
       <c r="L12">
-        <v>0.972355717</v>
+        <v>1</v>
       </c>
       <c r="M12">
-        <v>0.972355717</v>
+        <v>1</v>
       </c>
       <c r="N12">
-        <v>0.972355717</v>
+        <v>1</v>
       </c>
       <c r="O12">
-        <v>0.972355717</v>
+        <v>1</v>
       </c>
       <c r="P12">
-        <v>0.972355717</v>
+        <v>1</v>
       </c>
       <c r="Q12">
-        <v>0.972355717</v>
+        <v>1</v>
       </c>
       <c r="R12">
-        <v>0.972355717</v>
+        <v>1</v>
       </c>
       <c r="S12">
-        <v>0.972355717</v>
+        <v>1</v>
       </c>
       <c r="T12">
-        <v>0.972355717</v>
+        <v>1</v>
       </c>
       <c r="U12">
-        <v>0.972355717</v>
+        <v>1</v>
       </c>
       <c r="V12">
-        <v>0.972355717</v>
+        <v>1</v>
       </c>
       <c r="W12">
-        <v>0.972355717</v>
+        <v>1</v>
       </c>
       <c r="X12">
-        <v>0.972355717</v>
+        <v>1</v>
       </c>
       <c r="Y12">
-        <v>0.972355717</v>
+        <v>1</v>
       </c>
       <c r="Z12">
-        <v>0.972355717</v>
+        <v>1</v>
       </c>
       <c r="AA12">
-        <v>0.972355717</v>
+        <v>1</v>
       </c>
       <c r="AB12">
-        <v>0.972355717</v>
+        <v>1</v>
       </c>
       <c r="AC12">
-        <v>0.972355717</v>
+        <v>1</v>
       </c>
       <c r="AD12">
-        <v>0.972355717</v>
+        <v>1</v>
       </c>
       <c r="AE12">
-        <v>0.972355717</v>
+        <v>1</v>
       </c>
       <c r="AF12">
-        <v>0.972355717</v>
+        <v>1</v>
       </c>
       <c r="AG12">
-        <v>0.972355717</v>
+        <v>1</v>
       </c>
       <c r="AH12">
-        <v>0.972355717</v>
+        <v>1</v>
       </c>
       <c r="AI12">
-        <v>0.972355717</v>
+        <v>1</v>
       </c>
       <c r="AJ12">
-        <v>0.972355717</v>
+        <v>1</v>
       </c>
       <c r="AK12">
-        <v>0.972355717</v>
+        <v>1</v>
       </c>
       <c r="AL12">
-        <v>0.972355717</v>
+        <v>1</v>
       </c>
       <c r="AM12">
-        <v>0.972355717</v>
+        <v>1</v>
       </c>
       <c r="AN12">
-        <v>0.972355717</v>
+        <v>1</v>
       </c>
       <c r="AO12">
-        <v>0.972355717</v>
+        <v>1</v>
       </c>
       <c r="AP12">
-        <v>0.972355717</v>
+        <v>1</v>
       </c>
       <c r="AQ12">
-        <v>0.972355717</v>
+        <v>1</v>
       </c>
       <c r="AR12">
-        <v>0.972355717</v>
+        <v>1</v>
       </c>
       <c r="AS12">
-        <v>0.972355717</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:45">
@@ -2350,112 +2350,112 @@
         <v>1</v>
       </c>
       <c r="J13">
-        <v>1.078453066</v>
+        <v>1</v>
       </c>
       <c r="K13">
-        <v>1.078453066</v>
+        <v>1</v>
       </c>
       <c r="L13">
-        <v>1.078453066</v>
+        <v>1</v>
       </c>
       <c r="M13">
-        <v>1.078453066</v>
+        <v>1</v>
       </c>
       <c r="N13">
-        <v>1.078453066</v>
+        <v>1</v>
       </c>
       <c r="O13">
-        <v>1.078453066</v>
+        <v>1</v>
       </c>
       <c r="P13">
-        <v>1.078453066</v>
+        <v>1</v>
       </c>
       <c r="Q13">
-        <v>1.078453066</v>
+        <v>1</v>
       </c>
       <c r="R13">
-        <v>1.078453066</v>
+        <v>1</v>
       </c>
       <c r="S13">
-        <v>1.078453066</v>
+        <v>1</v>
       </c>
       <c r="T13">
-        <v>1.078453066</v>
+        <v>1</v>
       </c>
       <c r="U13">
-        <v>1.078453066</v>
+        <v>1</v>
       </c>
       <c r="V13">
-        <v>1.078453066</v>
+        <v>1</v>
       </c>
       <c r="W13">
-        <v>1.078453066</v>
+        <v>1</v>
       </c>
       <c r="X13">
-        <v>1.078453066</v>
+        <v>1</v>
       </c>
       <c r="Y13">
-        <v>1.078453066</v>
+        <v>1</v>
       </c>
       <c r="Z13">
-        <v>1.078453066</v>
+        <v>1</v>
       </c>
       <c r="AA13">
-        <v>1.078453066</v>
+        <v>1</v>
       </c>
       <c r="AB13">
-        <v>1.078453066</v>
+        <v>1</v>
       </c>
       <c r="AC13">
-        <v>1.078453066</v>
+        <v>1</v>
       </c>
       <c r="AD13">
-        <v>1.078453066</v>
+        <v>1</v>
       </c>
       <c r="AE13">
-        <v>1.078453066</v>
+        <v>1</v>
       </c>
       <c r="AF13">
-        <v>1.078453066</v>
+        <v>1</v>
       </c>
       <c r="AG13">
-        <v>1.078453066</v>
+        <v>1</v>
       </c>
       <c r="AH13">
-        <v>1.078453066</v>
+        <v>1</v>
       </c>
       <c r="AI13">
-        <v>1.078453066</v>
+        <v>1</v>
       </c>
       <c r="AJ13">
-        <v>1.078453066</v>
+        <v>1</v>
       </c>
       <c r="AK13">
-        <v>1.078453066</v>
+        <v>1</v>
       </c>
       <c r="AL13">
-        <v>1.078453066</v>
+        <v>1</v>
       </c>
       <c r="AM13">
-        <v>1.078453066</v>
+        <v>1</v>
       </c>
       <c r="AN13">
-        <v>1.078453066</v>
+        <v>1</v>
       </c>
       <c r="AO13">
-        <v>1.078453066</v>
+        <v>1</v>
       </c>
       <c r="AP13">
-        <v>1.078453066</v>
+        <v>1</v>
       </c>
       <c r="AQ13">
-        <v>1.078453066</v>
+        <v>1</v>
       </c>
       <c r="AR13">
-        <v>1.078453066</v>
+        <v>1</v>
       </c>
       <c r="AS13">
-        <v>1.078453066</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:45">
@@ -2472,112 +2472,112 @@
         <v>1</v>
       </c>
       <c r="J14">
-        <v>1.049680671</v>
+        <v>1</v>
       </c>
       <c r="K14">
-        <v>1.049680671</v>
+        <v>1</v>
       </c>
       <c r="L14">
-        <v>1.049680671</v>
+        <v>1</v>
       </c>
       <c r="M14">
-        <v>1.049680671</v>
+        <v>1</v>
       </c>
       <c r="N14">
-        <v>1.049680671</v>
+        <v>1</v>
       </c>
       <c r="O14">
-        <v>1.049680671</v>
+        <v>1</v>
       </c>
       <c r="P14">
-        <v>1.049680671</v>
+        <v>1</v>
       </c>
       <c r="Q14">
-        <v>1.049680671</v>
+        <v>1</v>
       </c>
       <c r="R14">
-        <v>1.049680671</v>
+        <v>1</v>
       </c>
       <c r="S14">
-        <v>1.049680671</v>
+        <v>1</v>
       </c>
       <c r="T14">
-        <v>1.049680671</v>
+        <v>1</v>
       </c>
       <c r="U14">
-        <v>1.049680671</v>
+        <v>1</v>
       </c>
       <c r="V14">
-        <v>1.049680671</v>
+        <v>1</v>
       </c>
       <c r="W14">
-        <v>1.049680671</v>
+        <v>1</v>
       </c>
       <c r="X14">
-        <v>1.049680671</v>
+        <v>1</v>
       </c>
       <c r="Y14">
-        <v>1.049680671</v>
+        <v>1</v>
       </c>
       <c r="Z14">
-        <v>1.049680671</v>
+        <v>1</v>
       </c>
       <c r="AA14">
-        <v>1.049680671</v>
+        <v>1</v>
       </c>
       <c r="AB14">
-        <v>1.049680671</v>
+        <v>1</v>
       </c>
       <c r="AC14">
-        <v>1.049680671</v>
+        <v>1</v>
       </c>
       <c r="AD14">
-        <v>1.049680671</v>
+        <v>1</v>
       </c>
       <c r="AE14">
-        <v>1.049680671</v>
+        <v>1</v>
       </c>
       <c r="AF14">
-        <v>1.049680671</v>
+        <v>1</v>
       </c>
       <c r="AG14">
-        <v>1.049680671</v>
+        <v>1</v>
       </c>
       <c r="AH14">
-        <v>1.049680671</v>
+        <v>1</v>
       </c>
       <c r="AI14">
-        <v>1.049680671</v>
+        <v>1</v>
       </c>
       <c r="AJ14">
-        <v>1.049680671</v>
+        <v>1</v>
       </c>
       <c r="AK14">
-        <v>1.049680671</v>
+        <v>1</v>
       </c>
       <c r="AL14">
-        <v>1.049680671</v>
+        <v>1</v>
       </c>
       <c r="AM14">
-        <v>1.049680671</v>
+        <v>1</v>
       </c>
       <c r="AN14">
-        <v>1.049680671</v>
+        <v>1</v>
       </c>
       <c r="AO14">
-        <v>1.049680671</v>
+        <v>1</v>
       </c>
       <c r="AP14">
-        <v>1.049680671</v>
+        <v>1</v>
       </c>
       <c r="AQ14">
-        <v>1.049680671</v>
+        <v>1</v>
       </c>
       <c r="AR14">
-        <v>1.049680671</v>
+        <v>1</v>
       </c>
       <c r="AS14">
-        <v>1.049680671</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:45">
@@ -2594,112 +2594,112 @@
         <v>1</v>
       </c>
       <c r="J15">
-        <v>0.962878458</v>
+        <v>1</v>
       </c>
       <c r="K15">
-        <v>0.962878458</v>
+        <v>1</v>
       </c>
       <c r="L15">
-        <v>0.962878458</v>
+        <v>1</v>
       </c>
       <c r="M15">
-        <v>0.962878458</v>
+        <v>1</v>
       </c>
       <c r="N15">
-        <v>0.962878458</v>
+        <v>1</v>
       </c>
       <c r="O15">
-        <v>0.962878458</v>
+        <v>1</v>
       </c>
       <c r="P15">
-        <v>0.962878458</v>
+        <v>1</v>
       </c>
       <c r="Q15">
-        <v>0.962878458</v>
+        <v>1</v>
       </c>
       <c r="R15">
-        <v>0.962878458</v>
+        <v>1</v>
       </c>
       <c r="S15">
-        <v>0.962878458</v>
+        <v>1</v>
       </c>
       <c r="T15">
-        <v>0.962878458</v>
+        <v>1</v>
       </c>
       <c r="U15">
-        <v>0.962878458</v>
+        <v>1</v>
       </c>
       <c r="V15">
-        <v>0.962878458</v>
+        <v>1</v>
       </c>
       <c r="W15">
-        <v>0.962878458</v>
+        <v>1</v>
       </c>
       <c r="X15">
-        <v>0.962878458</v>
+        <v>1</v>
       </c>
       <c r="Y15">
-        <v>0.962878458</v>
+        <v>1</v>
       </c>
       <c r="Z15">
-        <v>0.962878458</v>
+        <v>1</v>
       </c>
       <c r="AA15">
-        <v>0.962878458</v>
+        <v>1</v>
       </c>
       <c r="AB15">
-        <v>0.962878458</v>
+        <v>1</v>
       </c>
       <c r="AC15">
-        <v>0.962878458</v>
+        <v>1</v>
       </c>
       <c r="AD15">
-        <v>0.962878458</v>
+        <v>1</v>
       </c>
       <c r="AE15">
-        <v>0.962878458</v>
+        <v>1</v>
       </c>
       <c r="AF15">
-        <v>0.962878458</v>
+        <v>1</v>
       </c>
       <c r="AG15">
-        <v>0.962878458</v>
+        <v>1</v>
       </c>
       <c r="AH15">
-        <v>0.962878458</v>
+        <v>1</v>
       </c>
       <c r="AI15">
-        <v>0.962878458</v>
+        <v>1</v>
       </c>
       <c r="AJ15">
-        <v>0.962878458</v>
+        <v>1</v>
       </c>
       <c r="AK15">
-        <v>0.962878458</v>
+        <v>1</v>
       </c>
       <c r="AL15">
-        <v>0.962878458</v>
+        <v>1</v>
       </c>
       <c r="AM15">
-        <v>0.962878458</v>
+        <v>1</v>
       </c>
       <c r="AN15">
-        <v>0.962878458</v>
+        <v>1</v>
       </c>
       <c r="AO15">
-        <v>0.962878458</v>
+        <v>1</v>
       </c>
       <c r="AP15">
-        <v>0.962878458</v>
+        <v>1</v>
       </c>
       <c r="AQ15">
-        <v>0.962878458</v>
+        <v>1</v>
       </c>
       <c r="AR15">
-        <v>0.962878458</v>
+        <v>1</v>
       </c>
       <c r="AS15">
-        <v>0.962878458</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:45">
@@ -3326,112 +3326,112 @@
         <v>1</v>
       </c>
       <c r="J21">
-        <v>1.056474354</v>
+        <v>1</v>
       </c>
       <c r="K21">
-        <v>1.056474354</v>
+        <v>1</v>
       </c>
       <c r="L21">
-        <v>1.056474354</v>
+        <v>1</v>
       </c>
       <c r="M21">
-        <v>1.056474354</v>
+        <v>1</v>
       </c>
       <c r="N21">
-        <v>1.056474354</v>
+        <v>1</v>
       </c>
       <c r="O21">
-        <v>1.056474354</v>
+        <v>1</v>
       </c>
       <c r="P21">
-        <v>1.056474354</v>
+        <v>1</v>
       </c>
       <c r="Q21">
-        <v>1.056474354</v>
+        <v>1</v>
       </c>
       <c r="R21">
-        <v>1.056474354</v>
+        <v>1</v>
       </c>
       <c r="S21">
-        <v>1.056474354</v>
+        <v>1</v>
       </c>
       <c r="T21">
-        <v>1.056474354</v>
+        <v>1</v>
       </c>
       <c r="U21">
-        <v>1.056474354</v>
+        <v>1</v>
       </c>
       <c r="V21">
-        <v>1.056474354</v>
+        <v>1</v>
       </c>
       <c r="W21">
-        <v>1.056474354</v>
+        <v>1</v>
       </c>
       <c r="X21">
-        <v>1.056474354</v>
+        <v>1</v>
       </c>
       <c r="Y21">
-        <v>1.056474354</v>
+        <v>1</v>
       </c>
       <c r="Z21">
-        <v>1.056474354</v>
+        <v>1</v>
       </c>
       <c r="AA21">
-        <v>1.056474354</v>
+        <v>1</v>
       </c>
       <c r="AB21">
-        <v>1.056474354</v>
+        <v>1</v>
       </c>
       <c r="AC21">
-        <v>1.056474354</v>
+        <v>1</v>
       </c>
       <c r="AD21">
-        <v>1.056474354</v>
+        <v>1</v>
       </c>
       <c r="AE21">
-        <v>1.056474354</v>
+        <v>1</v>
       </c>
       <c r="AF21">
-        <v>1.056474354</v>
+        <v>1</v>
       </c>
       <c r="AG21">
-        <v>1.056474354</v>
+        <v>1</v>
       </c>
       <c r="AH21">
-        <v>1.056474354</v>
+        <v>1</v>
       </c>
       <c r="AI21">
-        <v>1.056474354</v>
+        <v>1</v>
       </c>
       <c r="AJ21">
-        <v>1.056474354</v>
+        <v>1</v>
       </c>
       <c r="AK21">
-        <v>1.056474354</v>
+        <v>1</v>
       </c>
       <c r="AL21">
-        <v>1.056474354</v>
+        <v>1</v>
       </c>
       <c r="AM21">
-        <v>1.056474354</v>
+        <v>1</v>
       </c>
       <c r="AN21">
-        <v>1.056474354</v>
+        <v>1</v>
       </c>
       <c r="AO21">
-        <v>1.056474354</v>
+        <v>1</v>
       </c>
       <c r="AP21">
-        <v>1.056474354</v>
+        <v>1</v>
       </c>
       <c r="AQ21">
-        <v>1.056474354</v>
+        <v>1</v>
       </c>
       <c r="AR21">
-        <v>1.056474354</v>
+        <v>1</v>
       </c>
       <c r="AS21">
-        <v>1.056474354</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:45">
@@ -3448,112 +3448,112 @@
         <v>1</v>
       </c>
       <c r="J22">
-        <v>1.03426824</v>
+        <v>1</v>
       </c>
       <c r="K22">
-        <v>1.03426824</v>
+        <v>1</v>
       </c>
       <c r="L22">
-        <v>1.03426824</v>
+        <v>1</v>
       </c>
       <c r="M22">
-        <v>1.03426824</v>
+        <v>1</v>
       </c>
       <c r="N22">
-        <v>1.03426824</v>
+        <v>1</v>
       </c>
       <c r="O22">
-        <v>1.03426824</v>
+        <v>1</v>
       </c>
       <c r="P22">
-        <v>1.03426824</v>
+        <v>1</v>
       </c>
       <c r="Q22">
-        <v>1.03426824</v>
+        <v>1</v>
       </c>
       <c r="R22">
-        <v>1.03426824</v>
+        <v>1</v>
       </c>
       <c r="S22">
-        <v>1.03426824</v>
+        <v>1</v>
       </c>
       <c r="T22">
-        <v>1.03426824</v>
+        <v>1</v>
       </c>
       <c r="U22">
-        <v>1.03426824</v>
+        <v>1</v>
       </c>
       <c r="V22">
-        <v>1.03426824</v>
+        <v>1</v>
       </c>
       <c r="W22">
-        <v>1.03426824</v>
+        <v>1</v>
       </c>
       <c r="X22">
-        <v>1.03426824</v>
+        <v>1</v>
       </c>
       <c r="Y22">
-        <v>1.03426824</v>
+        <v>1</v>
       </c>
       <c r="Z22">
-        <v>1.03426824</v>
+        <v>1</v>
       </c>
       <c r="AA22">
-        <v>1.03426824</v>
+        <v>1</v>
       </c>
       <c r="AB22">
-        <v>1.03426824</v>
+        <v>1</v>
       </c>
       <c r="AC22">
-        <v>1.03426824</v>
+        <v>1</v>
       </c>
       <c r="AD22">
-        <v>1.03426824</v>
+        <v>1</v>
       </c>
       <c r="AE22">
-        <v>1.03426824</v>
+        <v>1</v>
       </c>
       <c r="AF22">
-        <v>1.03426824</v>
+        <v>1</v>
       </c>
       <c r="AG22">
-        <v>1.03426824</v>
+        <v>1</v>
       </c>
       <c r="AH22">
-        <v>1.03426824</v>
+        <v>1</v>
       </c>
       <c r="AI22">
-        <v>1.03426824</v>
+        <v>1</v>
       </c>
       <c r="AJ22">
-        <v>1.03426824</v>
+        <v>1</v>
       </c>
       <c r="AK22">
-        <v>1.03426824</v>
+        <v>1</v>
       </c>
       <c r="AL22">
-        <v>1.03426824</v>
+        <v>1</v>
       </c>
       <c r="AM22">
-        <v>1.03426824</v>
+        <v>1</v>
       </c>
       <c r="AN22">
-        <v>1.03426824</v>
+        <v>1</v>
       </c>
       <c r="AO22">
-        <v>1.03426824</v>
+        <v>1</v>
       </c>
       <c r="AP22">
-        <v>1.03426824</v>
+        <v>1</v>
       </c>
       <c r="AQ22">
-        <v>1.03426824</v>
+        <v>1</v>
       </c>
       <c r="AR22">
-        <v>1.03426824</v>
+        <v>1</v>
       </c>
       <c r="AS22">
-        <v>1.03426824</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:45">
@@ -12476,112 +12476,112 @@
         <v>1</v>
       </c>
       <c r="J96">
-        <v>840378.7647000001</v>
+        <v>3540248.08932218</v>
       </c>
       <c r="K96">
-        <v>840378.7647000001</v>
+        <v>1381388.08405699</v>
       </c>
       <c r="L96">
-        <v>840378.7647000001</v>
+        <v>947872.303277281</v>
       </c>
       <c r="M96">
-        <v>840378.7647000001</v>
+        <v>1128940.26152003</v>
       </c>
       <c r="N96">
-        <v>840378.7647000001</v>
+        <v>1182372.61931889</v>
       </c>
       <c r="O96">
-        <v>840378.7647000001</v>
+        <v>840378.76471821</v>
       </c>
       <c r="P96">
-        <v>840378.7647000001</v>
+        <v>840378.8</v>
       </c>
       <c r="Q96">
-        <v>840378.7647000001</v>
+        <v>855311.104238914</v>
       </c>
       <c r="R96">
-        <v>840378.7647000001</v>
+        <v>870508.733721496</v>
       </c>
       <c r="S96">
-        <v>840378.7647000001</v>
+        <v>885976.4028899251</v>
       </c>
       <c r="T96">
-        <v>840378.7647000001</v>
+        <v>901718.909955133</v>
       </c>
       <c r="U96">
-        <v>840378.7647000001</v>
+        <v>917741.1383852561</v>
       </c>
       <c r="V96">
-        <v>840378.7647000001</v>
+        <v>934048.058420526</v>
       </c>
       <c r="W96">
-        <v>840378.7647000001</v>
+        <v>950644.728615089</v>
       </c>
       <c r="X96">
-        <v>840378.7647000001</v>
+        <v>967536.29740621</v>
       </c>
       <c r="Y96">
-        <v>840378.7647000001</v>
+        <v>984728.004711371</v>
       </c>
       <c r="Z96">
-        <v>840378.7647000001</v>
+        <v>1002225.18355373</v>
       </c>
       <c r="AA96">
-        <v>840378.7647000001</v>
+        <v>1020033.26171649</v>
       </c>
       <c r="AB96">
-        <v>840378.7647000001</v>
+        <v>1038157.76342663</v>
       </c>
       <c r="AC96">
-        <v>840378.7647000001</v>
+        <v>1056604.31106857</v>
       </c>
       <c r="AD96">
-        <v>840378.7647000001</v>
+        <v>1075378.6269283</v>
       </c>
       <c r="AE96">
-        <v>840378.7647000001</v>
+        <v>1094486.53496849</v>
       </c>
       <c r="AF96">
-        <v>840378.7647000001</v>
+        <v>1113933.96263509</v>
       </c>
       <c r="AG96">
-        <v>840378.7647000001</v>
+        <v>1133726.94269613</v>
       </c>
       <c r="AH96">
-        <v>840378.7647000001</v>
+        <v>1153871.61511313</v>
       </c>
       <c r="AI96">
-        <v>840378.7647000001</v>
+        <v>1174374.22894575</v>
       </c>
       <c r="AJ96">
-        <v>840378.7647000001</v>
+        <v>1195241.1442903</v>
       </c>
       <c r="AK96">
-        <v>840378.7647000001</v>
+        <v>1216478.83425275</v>
       </c>
       <c r="AL96">
-        <v>840378.7647000001</v>
+        <v>1238093.88695667</v>
       </c>
       <c r="AM96">
-        <v>840378.7647000001</v>
+        <v>1260093.00758701</v>
       </c>
       <c r="AN96">
-        <v>840378.7647000001</v>
+        <v>1282483.02047003</v>
       </c>
       <c r="AO96">
-        <v>840378.7647000001</v>
+        <v>1305270.87119032</v>
       </c>
       <c r="AP96">
-        <v>840378.7647000001</v>
+        <v>1328463.62874538</v>
       </c>
       <c r="AQ96">
-        <v>840378.7647000001</v>
+        <v>1352068.48773844</v>
       </c>
       <c r="AR96">
-        <v>840378.7647000001</v>
+        <v>1376092.77061035</v>
       </c>
       <c r="AS96">
-        <v>840378.7647000001</v>
+        <v>1400543.92991104</v>
       </c>
     </row>
     <row r="97" spans="1:45">
@@ -12598,112 +12598,112 @@
         <v>1</v>
       </c>
       <c r="J97">
-        <v>206840.2975</v>
+        <v>236567.586256145</v>
       </c>
       <c r="K97">
-        <v>206840.2975</v>
+        <v>204116.588128651</v>
       </c>
       <c r="L97">
-        <v>206840.2975</v>
+        <v>235223.687703097</v>
       </c>
       <c r="M97">
-        <v>206840.2975</v>
+        <v>298351.441278218</v>
       </c>
       <c r="N97">
-        <v>206840.2975</v>
+        <v>254931.648160624</v>
       </c>
       <c r="O97">
-        <v>206840.2975</v>
+        <v>206840.297546668</v>
       </c>
       <c r="P97">
-        <v>206840.2975</v>
+        <v>206840.3</v>
       </c>
       <c r="Q97">
-        <v>206840.2975</v>
+        <v>216892.280242579</v>
       </c>
       <c r="R97">
-        <v>206840.2975</v>
+        <v>227432.764450765</v>
       </c>
       <c r="S97">
-        <v>206840.2975</v>
+        <v>238485.492834809</v>
       </c>
       <c r="T97">
-        <v>206840.2975</v>
+        <v>250075.359326577</v>
       </c>
       <c r="U97">
-        <v>206840.2975</v>
+        <v>262228.46764786</v>
       </c>
       <c r="V97">
-        <v>206840.2975</v>
+        <v>274972.190103485</v>
       </c>
       <c r="W97">
-        <v>206840.2975</v>
+        <v>288335.229231638</v>
       </c>
       <c r="X97">
-        <v>206840.2975</v>
+        <v>302347.682450261</v>
       </c>
       <c r="Y97">
-        <v>206840.2975</v>
+        <v>317041.109845115</v>
       </c>
       <c r="Z97">
-        <v>206840.2975</v>
+        <v>332448.605252192</v>
       </c>
       <c r="AA97">
-        <v>206840.2975</v>
+        <v>348604.870794584</v>
       </c>
       <c r="AB97">
-        <v>206840.2975</v>
+        <v>365546.295041668</v>
       </c>
       <c r="AC97">
-        <v>206840.2975</v>
+        <v>383311.034966658</v>
       </c>
       <c r="AD97">
-        <v>206840.2975</v>
+        <v>401939.101887115</v>
       </c>
       <c r="AE97">
-        <v>206840.2975</v>
+        <v>421472.451581973</v>
       </c>
       <c r="AF97">
-        <v>206840.2975</v>
+        <v>441955.078788051</v>
       </c>
       <c r="AG97">
-        <v>206840.2975</v>
+        <v>463433.116288891</v>
       </c>
       <c r="AH97">
-        <v>206840.2975</v>
+        <v>485954.938819089</v>
       </c>
       <c r="AI97">
-        <v>206840.2975</v>
+        <v>509571.272018148</v>
       </c>
       <c r="AJ97">
-        <v>206840.2975</v>
+        <v>534335.306679248</v>
       </c>
       <c r="AK97">
-        <v>206840.2975</v>
+        <v>560302.818550254</v>
       </c>
       <c r="AL97">
-        <v>206840.2975</v>
+        <v>587532.29395678</v>
       </c>
       <c r="AM97">
-        <v>206840.2975</v>
+        <v>616085.06153027</v>
       </c>
       <c r="AN97">
-        <v>206840.2975</v>
+        <v>646025.430337753</v>
       </c>
       <c r="AO97">
-        <v>206840.2975</v>
+        <v>677420.834724417</v>
       </c>
       <c r="AP97">
-        <v>206840.2975</v>
+        <v>710341.986195196</v>
       </c>
       <c r="AQ97">
-        <v>206840.2975</v>
+        <v>744863.032677475</v>
       </c>
       <c r="AR97">
-        <v>206840.2975</v>
+        <v>781061.7255236059</v>
       </c>
       <c r="AS97">
-        <v>206840.2975</v>
+        <v>819019.594629376</v>
       </c>
     </row>
     <row r="98" spans="1:45">
@@ -12720,112 +12720,112 @@
         <v>1</v>
       </c>
       <c r="J98">
-        <v>18633.21001</v>
+        <v>22990.5828986593</v>
       </c>
       <c r="K98">
-        <v>18633.21001</v>
+        <v>20426.7556584196</v>
       </c>
       <c r="L98">
-        <v>18633.21001</v>
+        <v>20588.0726635464</v>
       </c>
       <c r="M98">
-        <v>18633.21001</v>
+        <v>19782.3715166274</v>
       </c>
       <c r="N98">
-        <v>18633.21001</v>
+        <v>17569.1677205607</v>
       </c>
       <c r="O98">
-        <v>18633.21001</v>
+        <v>18633.2100072617</v>
       </c>
       <c r="P98">
-        <v>18633.21001</v>
+        <v>18633.21</v>
       </c>
       <c r="Q98">
-        <v>18633.21001</v>
+        <v>18955.4050699888</v>
       </c>
       <c r="R98">
-        <v>18633.21001</v>
+        <v>19283.171357343</v>
       </c>
       <c r="S98">
-        <v>18633.21001</v>
+        <v>19616.6051964446</v>
       </c>
       <c r="T98">
-        <v>18633.21001</v>
+        <v>19955.8045874358</v>
       </c>
       <c r="U98">
-        <v>18633.21001</v>
+        <v>20300.8692250228</v>
       </c>
       <c r="V98">
-        <v>18633.21001</v>
+        <v>20651.9005277769</v>
       </c>
       <c r="W98">
-        <v>18633.21001</v>
+        <v>21009.0016679427</v>
       </c>
       <c r="X98">
-        <v>18633.21001</v>
+        <v>21372.2776017618</v>
       </c>
       <c r="Y98">
-        <v>18633.21001</v>
+        <v>21741.8351003206</v>
       </c>
       <c r="Z98">
-        <v>18633.21001</v>
+        <v>22117.7827809314</v>
       </c>
       <c r="AA98">
-        <v>18633.21001</v>
+        <v>22500.2311390564</v>
       </c>
       <c r="AB98">
-        <v>18633.21001</v>
+        <v>22889.292580784</v>
       </c>
       <c r="AC98">
-        <v>18633.21001</v>
+        <v>23285.0814558657</v>
       </c>
       <c r="AD98">
-        <v>18633.21001</v>
+        <v>23687.7140913251</v>
       </c>
       <c r="AE98">
-        <v>18633.21001</v>
+        <v>24097.3088256478</v>
       </c>
       <c r="AF98">
-        <v>18633.21001</v>
+        <v>24513.9860435626</v>
       </c>
       <c r="AG98">
-        <v>18633.21001</v>
+        <v>24937.8682114237</v>
       </c>
       <c r="AH98">
-        <v>18633.21001</v>
+        <v>25369.0799132051</v>
       </c>
       <c r="AI98">
-        <v>18633.21001</v>
+        <v>25807.7478871177</v>
       </c>
       <c r="AJ98">
-        <v>18633.21001</v>
+        <v>26254.0010628584</v>
       </c>
       <c r="AK98">
-        <v>18633.21001</v>
+        <v>26707.9705995048</v>
       </c>
       <c r="AL98">
-        <v>18633.21001</v>
+        <v>27169.7899240638</v>
       </c>
       <c r="AM98">
-        <v>18633.21001</v>
+        <v>27639.5947706879</v>
       </c>
       <c r="AN98">
-        <v>18633.21001</v>
+        <v>28117.5232205688</v>
       </c>
       <c r="AO98">
-        <v>18633.21001</v>
+        <v>28603.7157425209</v>
       </c>
       <c r="AP98">
-        <v>18633.21001</v>
+        <v>29098.3152342672</v>
       </c>
       <c r="AQ98">
-        <v>18633.21001</v>
+        <v>29601.4670644383</v>
       </c>
       <c r="AR98">
-        <v>18633.21001</v>
+        <v>30113.3191152979</v>
       </c>
       <c r="AS98">
-        <v>18633.21001</v>
+        <v>30634.0218262076</v>
       </c>
     </row>
     <row r="99" spans="1:45">
@@ -12842,112 +12842,112 @@
         <v>1</v>
       </c>
       <c r="J99">
-        <v>6893.551159</v>
+        <v>5943.71776390242</v>
       </c>
       <c r="K99">
-        <v>6893.551159</v>
+        <v>5582.97987596999</v>
       </c>
       <c r="L99">
-        <v>6893.551159</v>
+        <v>6115.48269826848</v>
       </c>
       <c r="M99">
-        <v>6893.551159</v>
+        <v>6409.13054586766</v>
       </c>
       <c r="N99">
-        <v>6893.551159</v>
+        <v>6600.71488356777</v>
       </c>
       <c r="O99">
-        <v>6893.551159</v>
+        <v>6893.55115918622</v>
       </c>
       <c r="P99">
-        <v>6893.551159</v>
+        <v>6893.551</v>
       </c>
       <c r="Q99">
-        <v>6893.551159</v>
+        <v>6986.18228846381</v>
       </c>
       <c r="R99">
-        <v>6893.551159</v>
+        <v>7080.0582990748</v>
       </c>
       <c r="S99">
-        <v>6893.551159</v>
+        <v>7175.19575764183</v>
       </c>
       <c r="T99">
-        <v>6893.551159</v>
+        <v>7271.61161472483</v>
       </c>
       <c r="U99">
-        <v>6893.551159</v>
+        <v>7369.32304865495</v>
       </c>
       <c r="V99">
-        <v>6893.551159</v>
+        <v>7468.34746859511</v>
       </c>
       <c r="W99">
-        <v>6893.551159</v>
+        <v>7568.70251764188</v>
       </c>
       <c r="X99">
-        <v>6893.551159</v>
+        <v>7670.40607596884</v>
       </c>
       <c r="Y99">
-        <v>6893.551159</v>
+        <v>7773.47626401237</v>
       </c>
       <c r="Z99">
-        <v>6893.551159</v>
+        <v>7877.93144570005</v>
       </c>
       <c r="AA99">
-        <v>6893.551159</v>
+        <v>7983.79023172263</v>
       </c>
       <c r="AB99">
-        <v>6893.551159</v>
+        <v>8091.07148284984</v>
       </c>
       <c r="AC99">
-        <v>6893.551159</v>
+        <v>8199.7943132908</v>
       </c>
       <c r="AD99">
-        <v>6893.551159</v>
+        <v>8309.97809409961</v>
       </c>
       <c r="AE99">
-        <v>6893.551159</v>
+        <v>8421.642456626631</v>
       </c>
       <c r="AF99">
-        <v>6893.551159</v>
+        <v>8534.807296016201</v>
       </c>
       <c r="AG99">
-        <v>6893.551159</v>
+        <v>8649.492774751359</v>
       </c>
       <c r="AH99">
-        <v>6893.551159</v>
+        <v>8765.719326246181</v>
       </c>
       <c r="AI99">
-        <v>6893.551159</v>
+        <v>8883.507658486311</v>
       </c>
       <c r="AJ99">
-        <v>6893.551159</v>
+        <v>9002.878757718579</v>
       </c>
       <c r="AK99">
-        <v>6893.551159</v>
+        <v>9123.85389219004</v>
       </c>
       <c r="AL99">
-        <v>6893.551159</v>
+        <v>9246.454615937369</v>
       </c>
       <c r="AM99">
-        <v>6893.551159</v>
+        <v>9370.702772627061</v>
       </c>
       <c r="AN99">
-        <v>6893.551159</v>
+        <v>9496.620499447359</v>
       </c>
       <c r="AO99">
-        <v>6893.551159</v>
+        <v>9624.230231052399</v>
       </c>
       <c r="AP99">
-        <v>6893.551159</v>
+        <v>9753.554703559341</v>
       </c>
       <c r="AQ99">
-        <v>6893.551159</v>
+        <v>9884.616958599299</v>
       </c>
       <c r="AR99">
-        <v>6893.551159</v>
+        <v>10017.4403474226</v>
       </c>
       <c r="AS99">
-        <v>6893.551159</v>
+        <v>10152.0485350593</v>
       </c>
     </row>
     <row r="100" spans="1:45">
@@ -12964,112 +12964,112 @@
         <v>1</v>
       </c>
       <c r="J100">
-        <v>1045524.074</v>
+        <v>763830.428372727</v>
       </c>
       <c r="K100">
-        <v>1045524.074</v>
+        <v>745504.701947103</v>
       </c>
       <c r="L100">
-        <v>1045524.074</v>
+        <v>898053.4390704751</v>
       </c>
       <c r="M100">
-        <v>1045524.074</v>
+        <v>418933.677949677</v>
       </c>
       <c r="N100">
-        <v>1045524.074</v>
+        <v>704274.564686539</v>
       </c>
       <c r="O100">
-        <v>1045524.074</v>
+        <v>1045524.07351848</v>
       </c>
       <c r="P100">
-        <v>1045524.074</v>
+        <v>1045524</v>
       </c>
       <c r="Q100">
-        <v>1045524.074</v>
+        <v>1284958.83124427</v>
       </c>
       <c r="R100">
-        <v>1045524.074</v>
+        <v>1579226.49120693</v>
       </c>
       <c r="S100">
-        <v>1045524.074</v>
+        <v>1940884.21347692</v>
       </c>
       <c r="T100">
-        <v>1045524.074</v>
+        <v>2385364.95626093</v>
       </c>
       <c r="U100">
-        <v>1045524.074</v>
+        <v>2931635.97037283</v>
       </c>
       <c r="V100">
-        <v>1045524.074</v>
+        <v>3603008.18548778</v>
       </c>
       <c r="W100">
-        <v>1045524.074</v>
+        <v>4428130.95346248</v>
       </c>
       <c r="X100">
-        <v>1045524.074</v>
+        <v>5442214.59723327</v>
       </c>
       <c r="Y100">
-        <v>1045524.074</v>
+        <v>6688532.9349124</v>
       </c>
       <c r="Z100">
-        <v>1045524.074</v>
+        <v>8220269.89603666</v>
       </c>
       <c r="AA100">
-        <v>1045524.074</v>
+        <v>10102789.030308</v>
       </c>
       <c r="AB100">
-        <v>1045524.074</v>
+        <v>12416422.7551849</v>
       </c>
       <c r="AC100">
-        <v>1045524.074</v>
+        <v>15259900.3674111</v>
       </c>
       <c r="AD100">
-        <v>1045524.074</v>
+        <v>18754561.101431</v>
       </c>
       <c r="AE100">
-        <v>1045524.074</v>
+        <v>23049532.017815</v>
       </c>
       <c r="AF100">
-        <v>1045524.074</v>
+        <v>28328091.6768423</v>
       </c>
       <c r="AG100">
-        <v>1045524.074</v>
+        <v>34815491.1531976</v>
       </c>
       <c r="AH100">
-        <v>1045524.074</v>
+        <v>42788566.1366051</v>
       </c>
       <c r="AI100">
-        <v>1045524.074</v>
+        <v>52587550.2939293</v>
       </c>
       <c r="AJ100">
-        <v>1045524.074</v>
+        <v>64630594.0023247</v>
       </c>
       <c r="AK100">
-        <v>1045524.074</v>
+        <v>79431608.0088549</v>
       </c>
       <c r="AL100">
-        <v>1045524.074</v>
+        <v>97622193.45601919</v>
       </c>
       <c r="AM100">
-        <v>1045524.074</v>
+        <v>119978594.089421</v>
       </c>
       <c r="AN100">
-        <v>1045524.074</v>
+        <v>147454820.774534</v>
       </c>
       <c r="AO100">
-        <v>1045524.074</v>
+        <v>181223361.839401</v>
       </c>
       <c r="AP100">
-        <v>1045524.074</v>
+        <v>222725216.468788</v>
       </c>
       <c r="AQ100">
-        <v>1045524.074</v>
+        <v>273731386.216252</v>
       </c>
       <c r="AR100">
-        <v>1045524.074</v>
+        <v>336418448.650924</v>
       </c>
       <c r="AS100">
-        <v>1045524.074</v>
+        <v>413461438.080332</v>
       </c>
     </row>
     <row r="101" spans="1:45">
@@ -13086,112 +13086,112 @@
         <v>1</v>
       </c>
       <c r="J101">
-        <v>166113.675</v>
+        <v>128643.470396428</v>
       </c>
       <c r="K101">
-        <v>166113.675</v>
+        <v>129961.584459341</v>
       </c>
       <c r="L101">
-        <v>166113.675</v>
+        <v>146626.26763033</v>
       </c>
       <c r="M101">
-        <v>166113.675</v>
+        <v>159722.989456785</v>
       </c>
       <c r="N101">
-        <v>166113.675</v>
+        <v>156231.572344347</v>
       </c>
       <c r="O101">
-        <v>166113.675</v>
+        <v>166113.674968843</v>
       </c>
       <c r="P101">
-        <v>166113.675</v>
+        <v>166113.7</v>
       </c>
       <c r="Q101">
-        <v>166113.675</v>
+        <v>174694.184535095</v>
       </c>
       <c r="R101">
-        <v>166113.675</v>
+        <v>183717.887870669</v>
       </c>
       <c r="S101">
-        <v>166113.675</v>
+        <v>193207.704157313</v>
       </c>
       <c r="T101">
-        <v>166113.675</v>
+        <v>203187.710126617</v>
       </c>
       <c r="U101">
-        <v>166113.675</v>
+        <v>213683.226176545</v>
       </c>
       <c r="V101">
-        <v>166113.675</v>
+        <v>224720.880612134</v>
       </c>
       <c r="W101">
-        <v>166113.675</v>
+        <v>236328.677204501</v>
       </c>
       <c r="X101">
-        <v>166113.675</v>
+        <v>248536.066239558</v>
       </c>
       <c r="Y101">
-        <v>166113.675</v>
+        <v>261374.019236704</v>
       </c>
       <c r="Z101">
-        <v>166113.675</v>
+        <v>274875.107527051</v>
       </c>
       <c r="AA101">
-        <v>166113.675</v>
+        <v>289073.584890559</v>
       </c>
       <c r="AB101">
-        <v>166113.675</v>
+        <v>304005.474461727</v>
       </c>
       <c r="AC101">
-        <v>166113.675</v>
+        <v>319708.660124337</v>
       </c>
       <c r="AD101">
-        <v>166113.675</v>
+        <v>336222.982627135</v>
       </c>
       <c r="AE101">
-        <v>166113.675</v>
+        <v>353590.340664285</v>
       </c>
       <c r="AF101">
-        <v>166113.675</v>
+        <v>371854.797177078</v>
       </c>
       <c r="AG101">
-        <v>166113.675</v>
+        <v>391062.691146564</v>
       </c>
       <c r="AH101">
-        <v>166113.675</v>
+        <v>411262.755160765</v>
       </c>
       <c r="AI101">
-        <v>166113.675</v>
+        <v>432506.239054735</v>
       </c>
       <c r="AJ101">
-        <v>166113.675</v>
+        <v>454847.039937151</v>
       </c>
       <c r="AK101">
-        <v>166113.675</v>
+        <v>478341.838933349</v>
       </c>
       <c r="AL101">
-        <v>166113.675</v>
+        <v>503050.24499171</v>
       </c>
       <c r="AM101">
-        <v>166113.675</v>
+        <v>529034.946118271</v>
       </c>
       <c r="AN101">
-        <v>166113.675</v>
+        <v>556361.868423252</v>
       </c>
       <c r="AO101">
-        <v>166113.675</v>
+        <v>585100.343383009</v>
       </c>
       <c r="AP101">
-        <v>166113.675</v>
+        <v>615323.283741793</v>
       </c>
       <c r="AQ101">
-        <v>166113.675</v>
+        <v>647107.368499586</v>
       </c>
       <c r="AR101">
-        <v>166113.675</v>
+        <v>680533.23745535</v>
       </c>
       <c r="AS101">
-        <v>166113.675</v>
+        <v>715685.695799267</v>
       </c>
     </row>
     <row r="102" spans="1:45">
@@ -13208,112 +13208,112 @@
         <v>1</v>
       </c>
       <c r="J102">
-        <v>108</v>
+        <v>5656387.83548591</v>
       </c>
       <c r="K102">
-        <v>100</v>
+        <v>3593915.00889202</v>
       </c>
       <c r="L102">
-        <v>100</v>
+        <v>2672859.80298353</v>
       </c>
       <c r="M102">
-        <v>100</v>
+        <v>2317597.84976661</v>
       </c>
       <c r="N102">
-        <v>100</v>
+        <v>2136732.98874682</v>
       </c>
       <c r="O102">
-        <v>100</v>
+        <v>2648716.73710727</v>
       </c>
       <c r="P102">
-        <v>100</v>
+        <v>2648717</v>
       </c>
       <c r="Q102">
-        <v>100</v>
+        <v>2843299.8916517</v>
       </c>
       <c r="R102">
-        <v>100</v>
+        <v>3052177.44057465</v>
       </c>
       <c r="S102">
-        <v>100</v>
+        <v>3276399.77622663</v>
       </c>
       <c r="T102">
-        <v>100</v>
+        <v>3517094.17380295</v>
       </c>
       <c r="U102">
-        <v>100</v>
+        <v>3775470.72159945</v>
       </c>
       <c r="V102">
-        <v>100</v>
+        <v>4052828.40471741</v>
       </c>
       <c r="W102">
-        <v>100</v>
+        <v>4350561.63569606</v>
       </c>
       <c r="X102">
-        <v>100</v>
+        <v>4670167.26490548</v>
       </c>
       <c r="Y102">
-        <v>100</v>
+        <v>5013252.10594452</v>
       </c>
       <c r="Z102">
-        <v>100</v>
+        <v>5381541.01387755</v>
       </c>
       <c r="AA102">
-        <v>100</v>
+        <v>5776885.5569233</v>
       </c>
       <c r="AB102">
-        <v>100</v>
+        <v>6201273.32519265</v>
       </c>
       <c r="AC102">
-        <v>100</v>
+        <v>6656837.92327486</v>
       </c>
       <c r="AD102">
-        <v>100</v>
+        <v>7145869.69690999</v>
       </c>
       <c r="AE102">
-        <v>100</v>
+        <v>7670827.24767551</v>
       </c>
       <c r="AF102">
-        <v>100</v>
+        <v>8234349.7935773</v>
       </c>
       <c r="AG102">
-        <v>100</v>
+        <v>8839270.43768758</v>
       </c>
       <c r="AH102">
-        <v>100</v>
+        <v>9488630.4115378</v>
       </c>
       <c r="AI102">
-        <v>100</v>
+        <v>10185694.3648749</v>
       </c>
       <c r="AJ102">
-        <v>100</v>
+        <v>10933966.7786503</v>
       </c>
       <c r="AK102">
-        <v>100</v>
+        <v>11737209.5837568</v>
       </c>
       <c r="AL102">
-        <v>100</v>
+        <v>12599461.0740932</v>
       </c>
       <c r="AM102">
-        <v>100</v>
+        <v>13525056.2090397</v>
       </c>
       <c r="AN102">
-        <v>100</v>
+        <v>14518648.4074161</v>
       </c>
       <c r="AO102">
-        <v>100</v>
+        <v>15585232.9424907</v>
       </c>
       <c r="AP102">
-        <v>100</v>
+        <v>16730172.0556595</v>
       </c>
       <c r="AQ102">
-        <v>100</v>
+        <v>17959221.9150521</v>
       </c>
       <c r="AR102">
-        <v>100</v>
+        <v>19278561.5546004</v>
       </c>
       <c r="AS102">
-        <v>100</v>
+        <v>20694823.9390603</v>
       </c>
     </row>
     <row r="103" spans="1:45">
@@ -13330,112 +13330,112 @@
         <v>1</v>
       </c>
       <c r="J103">
-        <v>96845.46376</v>
+        <v>93123.94161505481</v>
       </c>
       <c r="K103">
-        <v>96845.46376</v>
+        <v>91798.3360602827</v>
       </c>
       <c r="L103">
-        <v>96845.46376</v>
+        <v>86492.44993581819</v>
       </c>
       <c r="M103">
-        <v>96845.46376</v>
+        <v>82729.3955594726</v>
       </c>
       <c r="N103">
-        <v>96845.46376</v>
+        <v>85686.298610992</v>
       </c>
       <c r="O103">
-        <v>96845.46376</v>
+        <v>96845.46375741941</v>
       </c>
       <c r="P103">
-        <v>96845.46376</v>
+        <v>96845.46000000001</v>
       </c>
       <c r="Q103">
-        <v>96845.46376</v>
+        <v>100347.399581237</v>
       </c>
       <c r="R103">
-        <v>96845.46376</v>
+        <v>103975.969577886</v>
       </c>
       <c r="S103">
-        <v>96845.46376</v>
+        <v>107735.7489559</v>
       </c>
       <c r="T103">
-        <v>96845.46376</v>
+        <v>111631.482257005</v>
       </c>
       <c r="U103">
-        <v>96845.46376</v>
+        <v>115668.085585937</v>
       </c>
       <c r="V103">
-        <v>96845.46376</v>
+        <v>119850.652814172</v>
       </c>
       <c r="W103">
-        <v>96845.46376</v>
+        <v>124184.462007984</v>
       </c>
       <c r="X103">
-        <v>96845.46376</v>
+        <v>128674.98208895</v>
       </c>
       <c r="Y103">
-        <v>96845.46376</v>
+        <v>133327.879735285</v>
       </c>
       <c r="Z103">
-        <v>96845.46376</v>
+        <v>138149.026532743</v>
       </c>
       <c r="AA103">
-        <v>96845.46376</v>
+        <v>143144.506384089</v>
       </c>
       <c r="AB103">
-        <v>96845.46376</v>
+        <v>148320.623186499</v>
       </c>
       <c r="AC103">
-        <v>96845.46376</v>
+        <v>153683.908786572</v>
       </c>
       <c r="AD103">
-        <v>96845.46376</v>
+        <v>159241.131223007</v>
       </c>
       <c r="AE103">
-        <v>96845.46376</v>
+        <v>164999.303267322</v>
       </c>
       <c r="AF103">
-        <v>96845.46376</v>
+        <v>170965.691273412</v>
       </c>
       <c r="AG103">
-        <v>96845.46376</v>
+        <v>177147.824347114</v>
       </c>
       <c r="AH103">
-        <v>96845.46376</v>
+        <v>183553.503847332</v>
       </c>
       <c r="AI103">
-        <v>96845.46376</v>
+        <v>190190.813230732</v>
       </c>
       <c r="AJ103">
-        <v>96845.46376</v>
+        <v>197068.12825242</v>
       </c>
       <c r="AK103">
-        <v>96845.46376</v>
+        <v>204194.127535478</v>
       </c>
       <c r="AL103">
-        <v>96845.46376</v>
+        <v>211577.803522691</v>
       </c>
       <c r="AM103">
-        <v>96845.46376</v>
+        <v>219228.473824296</v>
       </c>
       <c r="AN103">
-        <v>96845.46376</v>
+        <v>227155.79297606</v>
       </c>
       <c r="AO103">
-        <v>96845.46376</v>
+        <v>235369.764622538</v>
       </c>
       <c r="AP103">
-        <v>96845.46376</v>
+        <v>243880.75414087</v>
       </c>
       <c r="AQ103">
-        <v>96845.46376</v>
+        <v>252699.501721064</v>
       </c>
       <c r="AR103">
-        <v>96845.46376</v>
+        <v>261837.135919258</v>
       </c>
       <c r="AS103">
-        <v>96845.46376</v>
+        <v>271305.187701069</v>
       </c>
     </row>
     <row r="104" spans="1:45">
@@ -13452,112 +13452,112 @@
         <v>1</v>
       </c>
       <c r="J104">
-        <v>40936.27952</v>
+        <v>39043.7759426143</v>
       </c>
       <c r="K104">
-        <v>40936.27952</v>
+        <v>38173.1957319621</v>
       </c>
       <c r="L104">
-        <v>40936.27952</v>
+        <v>34409.9105640365</v>
       </c>
       <c r="M104">
-        <v>40936.27952</v>
+        <v>37487.2158903309</v>
       </c>
       <c r="N104">
-        <v>40936.27952</v>
+        <v>37748.2858024121</v>
       </c>
       <c r="O104">
-        <v>40936.27952</v>
+        <v>40936.2795187436</v>
       </c>
       <c r="P104">
-        <v>40936.27952</v>
+        <v>40936.28</v>
       </c>
       <c r="Q104">
-        <v>40936.27952</v>
+        <v>43133.9629078672</v>
       </c>
       <c r="R104">
-        <v>40936.27952</v>
+        <v>45449.6294274239</v>
       </c>
       <c r="S104">
-        <v>40936.27952</v>
+        <v>47889.6135628057</v>
       </c>
       <c r="T104">
-        <v>40936.27952</v>
+        <v>50460.5893620563</v>
       </c>
       <c r="U104">
-        <v>40936.27952</v>
+        <v>53169.5891725397</v>
       </c>
       <c r="V104">
-        <v>40936.27952</v>
+        <v>56024.0228764037</v>
       </c>
       <c r="W104">
-        <v>40936.27952</v>
+        <v>59031.6981587067</v>
       </c>
       <c r="X104">
-        <v>40936.27952</v>
+        <v>62200.8418636493</v>
       </c>
       <c r="Y104">
-        <v>40936.27952</v>
+        <v>65540.12249732421</v>
       </c>
       <c r="Z104">
-        <v>40936.27952</v>
+        <v>69058.6739385371</v>
       </c>
       <c r="AA104">
-        <v>40936.27952</v>
+        <v>72766.1204225531</v>
       </c>
       <c r="AB104">
-        <v>40936.27952</v>
+        <v>76672.60286610819</v>
       </c>
       <c r="AC104">
-        <v>40936.27952</v>
+        <v>80788.8066056892</v>
       </c>
       <c r="AD104">
-        <v>40936.27952</v>
+        <v>85125.99062495799</v>
       </c>
       <c r="AE104">
-        <v>40936.27952</v>
+        <v>89696.0183512618</v>
       </c>
       <c r="AF104">
-        <v>40936.27952</v>
+        <v>94511.3901054689</v>
       </c>
       <c r="AG104">
-        <v>40936.27952</v>
+        <v>99585.2772938886</v>
       </c>
       <c r="AH104">
-        <v>40936.27952</v>
+        <v>104931.5584358</v>
       </c>
       <c r="AI104">
-        <v>40936.27952</v>
+        <v>110564.857125134</v>
       </c>
       <c r="AJ104">
-        <v>40936.27952</v>
+        <v>116500.58203015</v>
       </c>
       <c r="AK104">
-        <v>40936.27952</v>
+        <v>122754.969040504</v>
       </c>
       <c r="AL104">
-        <v>40936.27952</v>
+        <v>129345.125677016</v>
       </c>
       <c r="AM104">
-        <v>40936.27952</v>
+        <v>136289.077885578</v>
       </c>
       <c r="AN104">
-        <v>40936.27952</v>
+        <v>143605.819343231</v>
       </c>
       <c r="AO104">
-        <v>40936.27952</v>
+        <v>151315.363411253</v>
       </c>
       <c r="AP104">
-        <v>40936.27952</v>
+        <v>159438.797877371</v>
       </c>
       <c r="AQ104">
-        <v>40936.27952</v>
+        <v>167998.342636836</v>
       </c>
       <c r="AR104">
-        <v>40936.27952</v>
+        <v>177017.410470137</v>
       </c>
       <c r="AS104">
-        <v>40936.27952</v>
+        <v>186520.671083586</v>
       </c>
     </row>
     <row r="105" spans="1:45">
@@ -14306,112 +14306,112 @@
         <v>1</v>
       </c>
       <c r="J111">
-        <v>1402.040923</v>
+        <v>1425.35643314755</v>
       </c>
       <c r="K111">
-        <v>1402.040923</v>
+        <v>1423.0691481715</v>
       </c>
       <c r="L111">
-        <v>1402.040923</v>
+        <v>1233.91172926136</v>
       </c>
       <c r="M111">
-        <v>1402.040923</v>
+        <v>1104.89494825993</v>
       </c>
       <c r="N111">
-        <v>1402.040923</v>
+        <v>1164.77810124642</v>
       </c>
       <c r="O111">
-        <v>1402.040923</v>
+        <v>1402.04092335277</v>
       </c>
       <c r="P111">
-        <v>1402.040923</v>
+        <v>1402.041</v>
       </c>
       <c r="Q111">
-        <v>1402.040923</v>
+        <v>1487.1143207011</v>
       </c>
       <c r="R111">
-        <v>1402.040923</v>
+        <v>1577.34973715768</v>
       </c>
       <c r="S111">
-        <v>1402.040923</v>
+        <v>1673.0604760355</v>
       </c>
       <c r="T111">
-        <v>1402.040923</v>
+        <v>1774.57877002983</v>
       </c>
       <c r="U111">
-        <v>1402.040923</v>
+        <v>1882.25701111701</v>
       </c>
       <c r="V111">
-        <v>1402.040923</v>
+        <v>1996.46897378332</v>
       </c>
       <c r="W111">
-        <v>1402.040923</v>
+        <v>2117.61111247717</v>
       </c>
       <c r="X111">
-        <v>1402.040923</v>
+        <v>2246.10393778825</v>
       </c>
       <c r="Y111">
-        <v>1402.040923</v>
+        <v>2382.3934761309</v>
       </c>
       <c r="Z111">
-        <v>1402.040923</v>
+        <v>2526.95281799828</v>
       </c>
       <c r="AA111">
-        <v>1402.040923</v>
+        <v>2680.28376016196</v>
       </c>
       <c r="AB111">
-        <v>1402.040923</v>
+        <v>2842.91854751711</v>
       </c>
       <c r="AC111">
-        <v>1402.040923</v>
+        <v>3015.42172061977</v>
       </c>
       <c r="AD111">
-        <v>1402.040923</v>
+        <v>3198.39207532932</v>
       </c>
       <c r="AE111">
-        <v>1402.040923</v>
+        <v>3392.46474135859</v>
       </c>
       <c r="AF111">
-        <v>1402.040923</v>
+        <v>3598.31338694653</v>
       </c>
       <c r="AG111">
-        <v>1402.040923</v>
+        <v>3816.65255730657</v>
       </c>
       <c r="AH111">
-        <v>1402.040923</v>
+        <v>4048.2401549677</v>
       </c>
       <c r="AI111">
-        <v>1402.040923</v>
+        <v>4293.88007061826</v>
       </c>
       <c r="AJ111">
-        <v>1402.040923</v>
+        <v>4554.42497358454</v>
       </c>
       <c r="AK111">
-        <v>1402.040923</v>
+        <v>4830.77927163064</v>
       </c>
       <c r="AL111">
-        <v>1402.040923</v>
+        <v>5123.90225035355</v>
       </c>
       <c r="AM111">
-        <v>1402.040923</v>
+        <v>5434.81140307119</v>
       </c>
       <c r="AN111">
-        <v>1402.040923</v>
+        <v>5764.585962762</v>
       </c>
       <c r="AO111">
-        <v>1402.040923</v>
+        <v>6114.3706483162</v>
       </c>
       <c r="AP111">
-        <v>1402.040923</v>
+        <v>6485.37963810293</v>
       </c>
       <c r="AQ111">
-        <v>1402.040923</v>
+        <v>6878.90078464622</v>
       </c>
       <c r="AR111">
-        <v>1402.040923</v>
+        <v>7296.30008503989</v>
       </c>
       <c r="AS111">
-        <v>1402.040923</v>
+        <v>7739.02642261921</v>
       </c>
     </row>
     <row r="112" spans="1:45">
@@ -14428,112 +14428,112 @@
         <v>1</v>
       </c>
       <c r="J112">
-        <v>6281.742267</v>
+        <v>8171.54536731342</v>
       </c>
       <c r="K112">
-        <v>6281.742267</v>
+        <v>6849.26936407516</v>
       </c>
       <c r="L112">
-        <v>6281.742267</v>
+        <v>6168.47833038071</v>
       </c>
       <c r="M112">
-        <v>6281.742267</v>
+        <v>6150.69402598503</v>
       </c>
       <c r="N112">
-        <v>6281.742267</v>
+        <v>6379.92732824989</v>
       </c>
       <c r="O112">
-        <v>6281.742267</v>
+        <v>6281.74226743705</v>
       </c>
       <c r="P112">
-        <v>6281.742267</v>
+        <v>6281.742</v>
       </c>
       <c r="Q112">
-        <v>6281.742267</v>
+        <v>6797.25384193988</v>
       </c>
       <c r="R112">
-        <v>6281.742267</v>
+        <v>7355.07121937934</v>
       </c>
       <c r="S112">
-        <v>6281.742267</v>
+        <v>7958.66594070047</v>
       </c>
       <c r="T112">
-        <v>6281.742267</v>
+        <v>8611.794728618641</v>
       </c>
       <c r="U112">
-        <v>6281.742267</v>
+        <v>9318.522601708361</v>
       </c>
       <c r="V112">
-        <v>6281.742267</v>
+        <v>10083.2481747365</v>
       </c>
       <c r="W112">
-        <v>6281.742267</v>
+        <v>10910.7310352703</v>
       </c>
       <c r="X112">
-        <v>6281.742267</v>
+        <v>11806.1213669495</v>
       </c>
       <c r="Y112">
-        <v>6281.742267</v>
+        <v>12774.9920037954</v>
       </c>
       <c r="Z112">
-        <v>6281.742267</v>
+        <v>13823.373115061</v>
       </c>
       <c r="AA112">
-        <v>6281.742267</v>
+        <v>14957.7897364961</v>
       </c>
       <c r="AB112">
-        <v>6281.742267</v>
+        <v>16185.3023816208</v>
       </c>
       <c r="AC112">
-        <v>6281.742267</v>
+        <v>17513.5509857664</v>
       </c>
       <c r="AD112">
-        <v>6281.742267</v>
+        <v>18950.8024563904</v>
       </c>
       <c r="AE112">
-        <v>6281.742267</v>
+        <v>20506.0021256116</v>
       </c>
       <c r="AF112">
-        <v>6281.742267</v>
+        <v>22188.8294252041</v>
       </c>
       <c r="AG112">
-        <v>6281.742267</v>
+        <v>24009.7581305659</v>
       </c>
       <c r="AH112">
-        <v>6281.742267</v>
+        <v>25980.1215486144</v>
       </c>
       <c r="AI112">
-        <v>6281.742267</v>
+        <v>28112.1830553347</v>
       </c>
       <c r="AJ112">
-        <v>6281.742267</v>
+        <v>30419.2124219987</v>
       </c>
       <c r="AK112">
-        <v>6281.742267</v>
+        <v>32915.5684051042</v>
       </c>
       <c r="AL112">
-        <v>6281.742267</v>
+        <v>35616.788114066</v>
       </c>
       <c r="AM112">
-        <v>6281.742267</v>
+        <v>38539.6837128768</v>
       </c>
       <c r="AN112">
-        <v>6281.742267</v>
+        <v>41702.4470575995</v>
       </c>
       <c r="AO112">
-        <v>6281.742267</v>
+        <v>45124.7629209481</v>
       </c>
       <c r="AP112">
-        <v>6281.742267</v>
+        <v>48827.9315086549</v>
       </c>
       <c r="AQ112">
-        <v>6281.742267</v>
+        <v>52835.0010301572</v>
       </c>
       <c r="AR112">
-        <v>6281.742267</v>
+        <v>57170.9111487122</v>
       </c>
       <c r="AS112">
-        <v>6281.742267</v>
+        <v>61862.6482037606</v>
       </c>
     </row>
     <row r="113" spans="1:45">
